--- a/programme/Maths Psych_V2.xlsx
+++ b/programme/Maths Psych_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="8800" windowWidth="43720" windowHeight="22480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="43920" windowHeight="23320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstracts" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="421">
   <si>
     <t>Title</t>
   </si>
@@ -40,9 +40,6 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Affiliations</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>Zhou</t>
-  </si>
-  <si>
-    <t>Brief</t>
   </si>
   <si>
     <t xml:space="preserve">Source memory is memory for the context in which items were previously encountered. Past research has largely aimed to establish whether source memory retrieval is better characterised as a threshold or continuous process in two-alternative forced choice tasks, using ROC functions. Recently, Harlow and Donaldson (2013) introduced a continuous report paradigm to study performance in source memory tasks, and found evidence of a retrieval threshold underlying response accuracy. However, this account does not consider response time (RT) distributions. To investigate the role of decision-making in source memory retrieval, this study used the Smith (2016) circular diffusion model to introduce diffusion analogues of the threshold and continuous models of source memory retrieval in a replication of the Harlow and Donaldson (2013) task. Model selection done using the BIC found support for a circular diffusion model where memory discretely fails, as both RT and response accuracy data suggested that there were two components in performance. 
@@ -98,29 +92,18 @@
     <t>Fox</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Modelling condition order effects: Interference, learning, and decision strategies</t>
   </si>
   <si>
     <t>Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelling Speeded Multielement Decision Making as Diffusion in a Hypersphere
-</t>
-  </si>
-  <si>
     <t>Kaesler</t>
   </si>
   <si>
     <t xml:space="preserve">Eyewitness identification researchers have only recently employed signal detection theory (SDT) to understand witness performance on the police lineup task, in which a witness to a crime must either select one member from a (typically) six-person array who matches their memory of the perpetrator, or indicate that the perpetrator is not present. In addition to calculating empirical SDT measures from lineup data using Receiver Operating Curve analysis, researchers have fit a model called SDT-compound detection (SDT-CD) in attempt to discover the underlying theoretical parameters. However, SDT-CD has been selected for use without quantitative comparison against other potential SDT models. Of particular relevance to model selection is the contentious proposition that the sequential, rather than simultaneous, presentation of lineup members leads to superior witness decision performance, as the sequential lineup task challenges the plausibility of many SDT models that assume simultaneous presentation of items. This work compares the performance of three competing models; SDT-CD, a “maximum familiarity” model (MAX) and a novel sequential model (SDT-SEQ), in characterising sequential lineup data by using the Parametric Bootstrap Cross-fitting Method (PBCM). We tested both general model types (i.e. landscaping) and specific instances of the models as fit to 26 datasets in order to examine issues of model mimicry. Preliminary results highlight the challenges of using this approach to select between highly similar models and indicate that competing models strongly mimic each other.  </t>
   </si>
   <si>
-    <t>We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the "decision template" for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.
-We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the "decision template" for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.</t>
-  </si>
-  <si>
     <t>Smithson</t>
   </si>
   <si>
@@ -167,9 +150,6 @@
   </si>
   <si>
     <t>University of Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as “Black Swan” scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10% to 90% and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5%) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of "black swan" options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
   </si>
   <si>
     <t xml:space="preserve">This project uses Bayesian Linear Ballistic Accumulator (LBA) models of decision-making to model the cognitive control mechanisms that aid prospective memory (PM) and ongoing task performance in a complex and dynamic air-traffic control (ATC) simulation. We aim to explain how operators balance competing demands from ongoing and PM tasks under different levels of time pressure, task load, and relative response importance.
@@ -235,18 +215,6 @@
     <t>Mathematical Set Theory for Latent Variable Modelling in Psychology Research</t>
   </si>
   <si>
-    <t>The Linear Ballistic Accumulator (LBA; Brown &amp; Heathcote, 2008) model is one of the most popular choice
-response time models in mathematical psychology. When fitting the LBA to experimental data,
-researchers are often interested in comparing two or more possibly non-nested model versions.
-The principled Bayesian solution to this problem is to compute posterior model probabilities and
-Bayes factors. Both quantities rely on the marginal likelihood of the models which is in many
-applications a high-dimensional integral that usually cannot be evaluated analytically.
-Here we illustrate how Warp-III bridge sampling (Meng &amp; Schilling, 2002) can be used to estimate the
-marginal likelihood for (hierarchical) LBA models.
-Warp-III sampling is an advanced version of bridge sampling that enables the efficient estimation
-of the marginal likelihood, even for cases in which the posterior distribution is skewed.</t>
-  </si>
-  <si>
     <t>Gronau</t>
   </si>
   <si>
@@ -346,9 +314,6 @@
     <t>Little</t>
   </si>
   <si>
-    <t>Characterising the architecture and integration rule of change detection decisions</t>
-  </si>
-  <si>
     <t xml:space="preserve">We propose an adaptation of the logical rule-based models (Fific, Little &amp; Nosofsky, 2010) in order to characterise decision making based on information held in visual short term memory. Specifically, we seek to diagnose decision making processes in a one-shot multi-element change detection task, as either serial, parallel, or coactive in nature. We additionally seek to characterise whether the integration rule for each change decision is based on the maximum evidence strength or the sum of strengths across elements. The logical rule models assume that each element is represented as a Gaussian distribution of perceptual effects. To model changes, we assume that the strength of the change is represented as a folded-normal distribution.  We factorially manipulate the magnitude of change for a given element and whether a change decision requires an OR or an AND decision rule. This approach is novel in that it provides a way to unify signal detection models of change detection (Maximum Difference and Summed Difference models) with models of information process.
  </t>
   </si>
@@ -356,9 +321,6 @@
     <t>Stephens</t>
   </si>
   <si>
-    <t xml:space="preserve">Disappearing dissociations in experimental psychology: Using state-trace analysis to test for multiple processes: </t>
-  </si>
-  <si>
     <t>Dissociations have served as a key source of evidence for theory development in experimental psychology. Claims about the existence of multiple distinct psychological processes or systems are often based on demonstrations that manipulations such as working memory load, mood or instructions have differential effects on task performance. For example, a manipulation may have a larger effect on performance in one task, and a smaller or no detectable effect in another, as identified by statistical models like analysis of variance. However, inferring distinct underlying processes based on such interaction effects can be misleading. Such an inference depends on the strong – and probably often false – assumption that underlying psychological variables map linearly onto the observable dependent variables. Fortunately, state-trace analysis offers an alternative approach to test for dissociations, avoiding the linearity assumption. We apply state-trace analysis to databases of studies from category learning and from reasoning that have been cited as evidence for qualitatively distinct processes. We show that many of the dissociations thought to reflect the operation of distinct processes disappear against the stricter criteria of state-trace analysis. We argue that it is important for experiments to be designed with state-trace analysis in mind, and for statistical tools to be developed so that the approach can be readily applied. This will lead to a more rigorous foundation for theoretical claims about distinct underlying psychological mechanisms.</t>
   </si>
   <si>
@@ -369,9 +331,6 @@
   </si>
   <si>
     <t>Working memory capacity predicts ongoing reliance on misinformation: A latent-variable analysis</t>
-  </si>
-  <si>
-    <t>Misinformation often affects inferences and judgments even after it has been retracted and discredited. This is known as the continued influence effect. Memory processes have been theorized to contribute to the continued influence effect, and much previous research has focussed on the role of long-term memory processes at the time misinformation is retrieved during inferential reasoning and judgments. Recently, however, experimental research has focussed upon the role of working memory (WM) processes engaged in the updating and integration of information, when the retraction is encoded. From an individual differences perspective, susceptibility to continued influence effects should be predicted by a person’s WM abilities, if continued reliance on misinformation is influenced, at least in part, by insufficient integration of the initial misinformation and its subsequent retraction. Consequently, we hypothesized that WM capacity would predict susceptibility to continued influence effects uniquely, positively, and more substantially than short-term memory (STM) capacity. Participants (N = 216) completed a continued-influence task, as well as a battery of WM and STM capacity tasks. Based on a latent variable model, our hypothesis was supported (WM capacity: β = .36, p = .013; STM capacity: β = -.22, p = .187). Consequently, we suggest that WM capacity is a measurable “risk factor” for continued reliance on misinformation.</t>
   </si>
   <si>
     <t>Brydges</t>
@@ -418,10 +377,6 @@
   <si>
     <t xml:space="preserve">What forensic experts should say, or should be allowed to say, about the results of forensic comparisons has been a contentious issue in the legal and forensic science communities. It is common practice for forensic pattern identification experts, such as in fingerprints and ballistics, to testify that two impressions originate from the same source to the exclusion of all others in the absence of statistical information. Experts have even claimed 100% accuracy, or that the rates of error are so improbable that they need not be considered. An alternative framework is necessary. When, if ever, should experts claim to have determined that two items share a common source, and should they present error rates, or the probability of coincidental matches?
 Here we explore options for the statistical representation and communication of forensic evidence in court. We argue that we have reached a turning point, where Australian state and federal police jurisdictions are seeking alternative frameworks for presenting evidence in court, but where well-considered proposals are scarce. We propose an avenue by which the mathematical psychology community might lend their own expertise to the problem.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative statistical frameworks for communicating the strength of forensic evidence in court
 </t>
   </si>
   <si>
@@ -478,11 +433,6 @@
     <t>Lo</t>
   </si>
   <si>
-    <t xml:space="preserve">Institute of Theoretical Physics and Department of Physics
-The Chinese University of Hong Kong
-</t>
-  </si>
-  <si>
     <t>Lie-algebraic Approach for the Leaky Competing Accumulator Model of Decision Making</t>
   </si>
   <si>
@@ -502,9 +452,6 @@
   </si>
   <si>
     <t>Mason</t>
-  </si>
-  <si>
-    <t>Evaluating bundles of numbers: assessing the trade-off between memory and online updating in retrospective evaluation. </t>
   </si>
   <si>
     <t>Retrieving samples from memory is a critical tool for decision-making. In a series of experiments, we introduce incentive compatible methods to investigate the extent to which memory predicts evaluation. We present participants with a sequence of monetary values and ask them to complete both a free-recall task and a willingness to- pay (WTP) task. We then predict WTP from both the items that were recalled and those that were presented. We also discuss how the position of a value in a sequence determines evaluation. Our findings consistently show substantial evidence in favour of a memory based model of evaluation, even when participants are aware of the upcoming evaluation task. </t>
@@ -591,9 +538,6 @@
     </r>
   </si>
   <si>
-    <t>Priming and Variable Control  in Choice Conflict Tasks</t>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -957,7 +901,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Chris Donkin</t>
@@ -968,7 +911,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Ben R. Newell</t>
@@ -987,7 +929,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Michael David Wilson</t>
@@ -998,7 +939,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Shayne Loft</t>
@@ -1009,7 +949,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &amp; Andrew Heathcote</t>
@@ -1132,9 +1071,6 @@
     <t>The Role of Working Memory in Free Recall: The Effect of Preload at Retrieval</t>
   </si>
   <si>
-    <t>University of Western Australia</t>
-  </si>
-  <si>
     <t>Existing empirical evidence that suggests that working memory (WM) is involved in free recall of information from long-term memory primarily comes from examination of individual differences in WM capacity that --- due to their correlational nature --- are unable to distinguish effects at encoding from those at retrieval. In two experiments, we experimentally manipulated WM load via an informational preload during free recall. Participants were presented with a list of 8 words, followed by a 4 (study 1) or 6 (study 2) digit sequence (the preload). Participants were then asked free recall the word-list while maintaining the digit sequence, which was then reported in serial order after free recall of the word-list. While the preload had a small but consistent decrement on recall accuracy across all serial positions, there was no reliable effect on other benchmark measures of free recall. An ex-Gaussian model was fitted to free recall response time distributions, and it was found that preload was found to specifically affect the delay in retrieval onset, but did not influence the rate of memory search. Simulations of response time distributions via random-sampling-with-replacement model of memory retrieval suggest that preload may have influenced the recoverability of word-lists in memory. Given previous studies has found that attention-based manipulations at retrieval tend to impair free recall, our findings extend this research by suggesting that attentional components of WM are more critical to free recall than the storage capacity of WM.</t>
   </si>
   <si>
@@ -1250,9 +1186,6 @@
     <t>Jason Zhou, Philip Smith, Adam Osth, &amp; Simon Lilburn</t>
   </si>
   <si>
-    <t>[1] The University of Melbourne, [2] University of Tasmania, [3] The Ohio State University</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hyungwook Yim [1,2], Adam F. Osth [1], Vladimir M. Sloutsky [3], &amp; Simon J. Dennis [1] </t>
   </si>
   <si>
@@ -1262,88 +1195,49 @@
     <t>Don van Ravenzwaai, Casper Albers, &amp; Henk Kiers</t>
   </si>
   <si>
-    <t>[1] University of Melbourne, [2] Univeristy of Queensland</t>
-  </si>
-  <si>
     <t>Christina Van Heer [1], Robert Hester [1], David K. Sewell [2], &amp; Philip L. Smith [1]</t>
-  </si>
-  <si>
-    <t>[1] Murdoch University, [2] The University of Melbourne, [3] The University of Queensland</t>
   </si>
   <si>
     <t xml:space="preserve">Matthew B. Thompson [1], Rachel A. Searston [2], Gianni Ribeiro [3], &amp; Jason M. Tangen [3]
 </t>
   </si>
   <si>
-    <t>[1] University of Tasmania, [2] University Western Australia</t>
-  </si>
-  <si>
     <t>Luke Strickland [1], David Elliott [1], Michael David Wilson [2], Shayne Loft [2], &amp; Andrew Heathcote [1]</t>
   </si>
   <si>
-    <t>[1] University of New South Wales, [2] Univeristy of Amerstdam</t>
-  </si>
-  <si>
     <t>Rachel G. Stephens [1], Dora Matzke [2], &amp; Brett K. Hayes [1]</t>
   </si>
   <si>
-    <t>[1] Technion (Israel Institute of Technology), [2] The Australian National University</t>
-  </si>
-  <si>
     <t>Yakov Ben-Haim [1] &amp; Michael Smithson [2]</t>
   </si>
   <si>
-    <t>[1] University of Melbourne, [2] Trinity College, Dublin</t>
-  </si>
-  <si>
     <t>Philip L. Smith [1], &amp; Elaine A. Corbett [1,2]</t>
   </si>
   <si>
     <t>Yiyun Shou &amp; Michael Smithson</t>
   </si>
   <si>
-    <t>[1] University of Melbourne, [2] Queen's University</t>
-  </si>
-  <si>
     <t>Kevin D. Shabahang [1], D. J. K. Mewhort [2], &amp;  Donald R. J. Franklin [2]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Amy Perfors &amp; Nicholas van Dam  </t>
-  </si>
-  <si>
-    <t>[1] The University of Newcastle, [2] The University of Western Australia</t>
-  </si>
-  <si>
     <t>Adam F. Osth [1] &amp; Simon Farrell [2]</t>
   </si>
   <si>
     <t>Klaus Oberauer &amp; Hsuan-Yu Lin</t>
   </si>
   <si>
-    <t>[1] University of New South Wales, [2] Indiana University</t>
-  </si>
-  <si>
     <t>Mike Le Pelley [1], Ben R. Newell [1], &amp; Robert Nosofsky [2]</t>
   </si>
   <si>
-    <t>[1] University of New South Wales, [2] University of Melbourne</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daniel Navarro [1], Alison McCann [1], Alexandra Tingey [1],Nicole Baz [1],Michelle Keshwa [1], &amp; Amy Perfors [2], </t>
   </si>
   <si>
-    <t>[1] University of Western Australia, [2] University of Essex, [3] University of Warwick</t>
-  </si>
-  <si>
     <t>Alice Mason [1], Mark Hurlstone [1], Geoff Ward [2], Gordon Brown [3], &amp; Simon Farrell [1]</t>
   </si>
   <si>
     <t>Marton Kocsis &amp; Simon Farrell</t>
   </si>
   <si>
-    <t>University of Basel</t>
-  </si>
-  <si>
     <t>Ashley Luckman, Sebastian Gluth, &amp; Jörg Rieskamp.</t>
   </si>
   <si>
@@ -1353,39 +1247,21 @@
     <t>Anthea G. Blunden, Dylan Hammond, Piers D. L. Howe, &amp; Daniel R. Little</t>
   </si>
   <si>
-    <t>[1] University of Adelaide, [2] University of Western Australia</t>
-  </si>
-  <si>
     <t>Matthew Kaesler [1], John Dunn [2], &amp; Carolyn Semmler [1]</t>
   </si>
   <si>
-    <t>[1] University of New South Wales, [2] University of Oxford</t>
-  </si>
-  <si>
     <t>Jared M. Hotaling [1], Andreas Jarvstad [2], Chris Donkin [1], &amp; Ben R. Newell [1]</t>
   </si>
   <si>
-    <t>[1] University of Tasmania, [2] Vanderbilt University, [3] University of Newcastle, [4] University of Amsterdam</t>
-  </si>
-  <si>
     <t>Andrew Heathcote [1], Mathieu Servant [2], Kirsty Hannah [3], &amp; Dora Matzke [4]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [1] University of New South Wales, [2] University of Western Australia</t>
-  </si>
-  <si>
     <t>Brett K. Hayes [1], Rachel G. Stephens [1], Jeremy Ngo [1], &amp; John C. Dunn [2]</t>
   </si>
   <si>
-    <t>[1] University of Newcastle, [2] Vanderbilt University</t>
-  </si>
-  <si>
     <t>Guy E. Hawkins [1], Nathan J. Evans [2], &amp; Scott D. Brown [1]</t>
   </si>
   <si>
-    <t>[1] University of Amsterdam, [2] University of Tasmania</t>
-  </si>
-  <si>
     <t>Quentin F. Gronau [1], Andrew Heathcote [2], &amp; Dora Matzke [1]</t>
   </si>
   <si>
@@ -1401,25 +1277,16 @@
     <t>Rachel Mullard, Marc Adam, &amp; Ami Eidels</t>
   </si>
   <si>
-    <t>[1] University of Western Australia, [2] Chinese Academy of Sciences</t>
-  </si>
-  <si>
     <t>John C. Dunn [1] &amp; Li-Lin Rao [2]</t>
   </si>
   <si>
     <t>University of New South Wales</t>
   </si>
   <si>
-    <t>[1] University of Melbourne, [2] University of Newcastle, [3] Vanderbilt University, [4] NIH Research Laboratories</t>
-  </si>
-  <si>
     <t>Simon De Deyne  &amp; Amy Perfors</t>
   </si>
   <si>
     <t>Christopher R. Brydges, Gilles E. Gignac, &amp; Ullrich K. H. Ecker</t>
-  </si>
-  <si>
-    <t>[1] University of Western Australia, [2] University of Tasmania</t>
   </si>
   <si>
     <t>Russell J. Boag [1], Luke Strickland [2], Andrew Heathcote [2], &amp; Shayne Loft [1]</t>
@@ -1436,178 +1303,6 @@
 Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. Psychological Review, 100, 432–459.
 Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. Journal of Mathematical Psychology, 70, 1-11
 Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. Journal of Risk and Uncertainty, 5(4), 297–323.</t>
-  </si>
-  <si>
-    <r>
-      <t>Simon Dennis [1], Paul Garrett [2], Hyungwook Yim [1]</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nathan Evans [3], &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vishnu Sreekumar [4]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In recent years, model-based cognitive neuroscience has increasingly used electroencephalographic (EEG) data to characterize the timing of processes related to parameters in cognitive models. This approach has been successfully applied based on well-known ERP components (e.g. Ravenzwaaij, Provost &amp; Brown, 2017, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J. Math. Psychol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">). However subtle multivariate patterns of EEG data, revealed by multivariate pattern analysis (MVPA), can also provide useful neural correlates of model parameters. Here we present DDTBOX, an open-source MVPA toolbox for EEG data. DDTBOX runs under MATLAB and is well integrated with the EEGLAB/ERPLAB and Fieldtrip toolboxes. It trains support vector machines (SVMs) on patterns of event-related potential (ERP) amplitude data, following or preceding an event of interest, for classification or regression of experimental variables. ERP amplitude patterns can be extracted across space/electrodes (spatial decoding), time (temporal decoding), or both (spatiotemporal decoding). DDTBOX can also extract SVM feature weights, generate empirical chance distributions based on permuted-labels decoding, provide estimates of the prevalence of decodable information in the population, and perform a variety of corrections for multiple comparisons. DDTBOX complements conventional model-based analyses of ERP components, as subtle multivariate patterns can be detected that would be overlooked in standard ERP component-based analyses. These multivariate patterns can be used to predict model parameters directly (e.g. Grootswagers et al., 2017, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J. Cogn. Neurosci.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) or to provide complementary information to inform behavioural modelling results (e.g. Bode et al., 2012, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J. Neurosci.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). In summary, DDTBOX is an easy-to-use and open-source toolbox that allows for characterising the time-course of information related to perceptual and cognitive processes. It can be applied to data from a large number of experimental paradigms and is expected to be a valuable tool for model-based cognitive neuroscience.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The controversy over multiple category-learning systems rolls on with proponents of the multiplicity view seemingly impervious to evidence suggesting that single system interpretations can accommodate large tranches of the available data. In 2014, Smith et al. published a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Psychological Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> paper in which they claimed to have found one of the “</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strongest explicit-implicit dissociations yet seen in the categorization literature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”. In the spirit of pursuing theoretical development, we present empirical and modelling results that appear to categorically rule out Smith et al’s key claim that deferring feedback has a deleterious effect on tasks that require ‘Information-Integration’, while leaving rule-based learning intact. We find, perhaps unsurprisingly, that delaying feedback causes a performance decrement in tasks which require holding information about more than one dimension in memory – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for both information-integration AND rule-based tasks.</t>
-    </r>
   </si>
   <si>
     <t>In the past decades, numerous studies have investigated how people adapt their decision making processes in response to cognitive demands. However, those studies have almost exclusively considered paradigms in which all relevant information is presented simultaneously and conveniently to participants (i.e. Decisions from Description), and therefore, very little is known about how people adjust their decision processes due to increases in cognitive demands in Decisions from Experience.  In order to address this issue, we suggest an adaptive mechanism that is guided by an optimal performance-effort trade-off and by the task's goal.  Previous studies have shown that different tasks' goals in experience based decisions reveal evidence for different underlying processes. Specifically, it has been argued that extreme values are often overweighted in preferential choices (e.g. Tsetsos et..al, 2012), but underweighted in perceptual choices (e.g. Vandormael, et. al., 2017). In order to investigate this discrepancy and the effect of cognitive load on these mechanisms, we applied a novel paradigm in two experiments, in which the tasks’ goal was manipulated within subjects. In both versions participants were presented with an array of numbers. In the ‘Preferential’ task they had to choose between a fixed reward and a gamble with an equal chance of winning any of one of the numbers in the array. In the ‘Perceptual’ task the goal was to decide whether the fixed value was higher than the average of the numbers in the array. Cognitive load was manipulated between subjects by applying different time constraints for the array display, and the variance of the arrays was manipulated within subjects in order to test the impact of extreme values. Findings show that in the ‘Preferential’ task under high cognitive load settings, subjects tended to pick the array more often when it had high variance (i.e. risk seeking), while variance had no effect in the ‘perceptual’ task nor under moderate cognitive load settings in either task. These findings are consistent with the idea that extreme values influence risk preference especially when cognitive resources are scarce.</t>
@@ -1840,112 +1535,417 @@
     <t>[1] The University of Melbourne, [2] Ghent University</t>
   </si>
   <si>
+    <t>Dudgeon</t>
+  </si>
+  <si>
+    <t>**Paul Dudgeon**,  Mariska Barendse, &amp; Yves Rosseel</t>
+  </si>
+  <si>
+    <t>Ratcliff</t>
+  </si>
+  <si>
+    <t>**Trisha Nowland**</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>**Yonatan Vanunu**, Jared M. Hotaling, Ben R. Newell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverage is a measure of how far away one individual’s set of scores of 2 or more variables is from the scores of all other individuals.  Besides its usage in regression diagnostics, leverage is also used in estimators of the covariance matrix of regression parameters when standard assumptions of homoscedasticity and/or normality are violated---these are called heteroscedastic-consistent (HC) estimators in the literature, and they were originally proposed by Huber in the 1970s and by White in the 1980s.  Because linear regression is a particular form of structural equation modelling (SEM), HC-type estimators are theoretically possible in SEM also.  However, only White’s HCO estimator is currently available in SEM.  It is often referred to as a robust estimator or a sandwich estimator in the SEM literature.  This presentation develops leverage-based sandwich estimators for deriving standard errors and confidence intervals (CIs) in SEM.  These new estimators correspond to the HC3 estimator used in linear regression.  Our research shows that the current “robust” estimator used in SEM is not as robust as the appellation given to it implies.  More importantly, we show that the incorporation of leverage into the current sandwich estimator used in SEM results in much better coverage in CIs, even for samples sizes as low as 50 (where current estimator’s robustness bombs badly).   </t>
+  </si>
+  <si>
+    <t>In recent years, model-based cognitive neuroscience has increasingly used electroencephalographic (EEG) data to characterize the timing of processes related to parameters in cognitive models. This approach has been successfully applied based on well-known ERP components (e.g. Ravenzwaaij, Provost &amp; Brown, 2017, J. Math. Psychol.). However subtle multivariate patterns of EEG data, revealed by multivariate pattern analysis (MVPA), can also provide useful neural correlates of model parameters. Here we present DDTBOX, an open-source MVPA toolbox for EEG data. DDTBOX runs under MATLAB and is well integrated with the EEGLAB/ERPLAB and Fieldtrip toolboxes. It trains support vector machines (SVMs) on patterns of event-related potential (ERP) amplitude data, following or preceding an event of interest, for classification or regression of experimental variables. ERP amplitude patterns can be extracted across space/electrodes (spatial decoding), time (temporal decoding), or both (spatiotemporal decoding). DDTBOX can also extract SVM feature weights, generate empirical chance distributions based on permuted-labels decoding, provide estimates of the prevalence of decodable information in the population, and perform a variety of corrections for multiple comparisons. DDTBOX complements conventional model-based analyses of ERP components, as subtle multivariate patterns can be detected that would be overlooked in standard ERP component-based analyses. These multivariate patterns can be used to predict model parameters directly (e.g. Grootswagers et al., 2017, J. Cogn. Neurosci.) or to provide complementary information to inform behavioural modelling results (e.g. Bode et al., 2012, J. Neurosci.). In summary, DDTBOX is an easy-to-use and open-source toolbox that allows for characterising the time-course of information related to perceptual and cognitive processes. It can be applied to data from a large number of experimental paradigms and is expected to be a valuable tool for model-based cognitive neuroscience.</t>
+  </si>
+  <si>
+    <t>The controversy over multiple category-learning systems rolls on with proponents of the multiplicity view seemingly impervious to evidence suggesting that single system interpretations can accommodate large tranches of the available data. In 2014, Smith et al. published a Psychological Science paper in which they claimed to have found one of the “strongest explicit-implicit dissociations yet seen in the categorization literature”. In the spirit of pursuing theoretical development, we present empirical and modelling results that appear to categorically rule out Smith et al’s key claim that deferring feedback has a deleterious effect on tasks that require ‘Information-Integration’, while leaving rule-based learning intact. We find, perhaps unsurprisingly, that delaying feedback causes a performance decrement in tasks which require holding information about more than one dimension in memory – for both information-integration AND rule-based tasks.</t>
+  </si>
+  <si>
+    <t>Misinformation often affects inferences and judgments even after it has been retracted and discredited. This is known as the continued influence effect. Memory processes have been theorized to contribute to the continued influence effect, and much previous research has focussed on the role of long-term memory processes at the time misinformation is retrieved during inferential reasoning and judgments. Recently, however, experimental research has focussed upon the role of working memory (WM) processes engaged in the updating and integration of information, when the retraction is encoded. From an individual differences perspective, susceptibility to continued influence effects should be predicted by a person’s WM abilities, if continued reliance on misinformation is influenced, at least in part, by insufficient integration of the initial misinformation and its subsequent retraction. Consequently, we hypothesized that WM capacity would predict susceptibility to continued influence effects uniquely, positively, and more substantially than short-term memory (STM) capacity. Participants (N = 216) completed a continued-influence task, as well as a battery of WM and STM capacity tasks. Based on a latent variable model, our hypothesis was supported (WM capacity: beta = .36, p = .013; STM capacity: beta = -.22, p = .187). Consequently, we suggest that WM capacity is a measurable “risk factor” for continued reliance on misinformation.</t>
+  </si>
+  <si>
+    <t>**Human information processing in the face of reward versus punishment**</t>
+  </si>
+  <si>
+    <t>**Modelling Cognitive Control Mechanisms in Simulated Air-Traffic Control**</t>
+  </si>
+  <si>
+    <t>**Working memory capacity predicts ongoing reliance on misinformation: A latent-variable analysis**</t>
+  </si>
+  <si>
+    <t>**The prediction game: A simple pedagogical tool to introduce Bayesian inference**</t>
+  </si>
+  <si>
+    <t>**Output Interference and Release in Cued Recall: The role of learning during test and a response filter**</t>
+  </si>
+  <si>
+    <t>**Near neighbour judgements as an efficient way to estimate semantic similarity.**</t>
+  </si>
+  <si>
+    <t>**Predicting memory for WHEN**</t>
+  </si>
+  <si>
+    <t>**Inferring task-specific psychological representation**</t>
+  </si>
+  <si>
+    <t>**Leverage-based confidence intervals for structural equation modelling.**</t>
+  </si>
+  <si>
+    <t>**Models of risky choice: A signed difference analysis**</t>
+  </si>
+  <si>
+    <t>**Competitive Decision Making in Dutch Auctions**</t>
+  </si>
+  <si>
+    <t>**Applying the Cultural Ratchet to a Social Artefact: The Cumulative Cultural Evolution of a Language Game**</t>
+  </si>
+  <si>
+    <t>**The Decision Decoding Toolbox (DDTBOX) - A multivariate pattern analysis toolbox for event-related potentials**</t>
+  </si>
+  <si>
+    <t>**Modelling condition order effects: Interference, learning, and decision strategies**</t>
+  </si>
+  <si>
+    <t>**Warp-III Bridge Sampling for Comparing LBA Models**</t>
+  </si>
+  <si>
+    <t>**Normative theories are nice, but people aren’t always normative: Comparing collapsing and fixed threshold models of speeded decision making**</t>
+  </si>
+  <si>
+    <t>**The dimensionality of reasoning: Inductive and deductive inference can be explained by a single process**</t>
+  </si>
+  <si>
+    <t>**Priming and Variable Control  in Choice Conflict Tasks**</t>
+  </si>
+  <si>
+    <t>**The effects of outcome information during sampling on decisions from experience**</t>
+  </si>
+  <si>
+    <t>**Evaluating Signal Detection Models for Eyewitness Identification**</t>
+  </si>
+  <si>
+    <t>**The Role of Working Memory in Free Recall: The Effect of Preload at Retrieval**</t>
+  </si>
+  <si>
+    <t>**Characterising the architecture and integration rule of change detection decisions**</t>
+  </si>
+  <si>
+    <t>**Lie-algebraic Approach for the Leaky Competing Accumulator Model of Decision Making**</t>
+  </si>
+  <si>
+    <t>**Evaluating bundles of numbers: assessing the trade-off between memory and online updating in retrospective evaluation**</t>
+  </si>
+  <si>
+    <t>**Extensional and intensional reasoning: A Bayesian perspective on the conjunction fallacy**</t>
+  </si>
+  <si>
+    <t>**Once more, with feeling: deferred feedback does not “sharply dissociate” ‘implicit’ and ‘explicit’ category learning.**</t>
+  </si>
+  <si>
+    <t>**Mathematical Set Theory for Latent Variable Modelling in Psychology Research**</t>
+  </si>
+  <si>
+    <t>**An Interference Model of Visual Working Memory: Applications to Change Detection**</t>
+  </si>
+  <si>
+    <t>**Modeling response time distributions of free recall initiation with race models**</t>
+  </si>
+  <si>
+    <t>**Decision-making in black swan environments**</t>
+  </si>
+  <si>
+    <t>**Modeling Numeracy Decisions on a Continuous Scale**</t>
+  </si>
+  <si>
+    <t>**Semantic contrast effects: a holographic interface linking episodic and semantic memory**</t>
+  </si>
+  <si>
+    <t>**How Do People Think About the Probability of Human Extinction?**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Modelling Speeded Multielement Decision Making as Diffusion in a Hypersphere**
+</t>
+  </si>
+  <si>
+    <t>**Assessing Robustness of Statistical Models: Info-Gap Theory**</t>
+  </si>
+  <si>
+    <t>**Disappearing dissociations in experimental psychology: Using state-trace analysis to test for multiple processes**</t>
+  </si>
+  <si>
+    <t>**Modelling Prospective Memory in Simulated Maritime Surveillance: Cognitive Control and Competition for Capacity**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Alternative statistical frameworks for communicating the strength of forensic evidence in court**
+</t>
+  </si>
+  <si>
+    <t>**The role of prediction error and confidence in sequential decisions **</t>
+  </si>
+  <si>
+    <t>**Credible Confidence: A pragmatic view on the frequentist vs Bayesian debate**</t>
+  </si>
+  <si>
+    <t>**The Impact of Goal and Cognitive Load on Decisions from Experience.**</t>
+  </si>
+  <si>
+    <t>**An Egocentric Bias is Important to Adaptive Social Learning**</t>
+  </si>
+  <si>
+    <t>**Decision-Making in Source Memory: Re-evaluating the Thresholded Nature of Source Memory Retrieval**</t>
+  </si>
+  <si>
+    <t>**Decomposing Different Sources of Interference in Recognition Memory Development - a Computational Modeling Approach**</t>
+  </si>
+  <si>
+    <t>*University of Queensland*</t>
+  </si>
+  <si>
+    <t>*[1] University of Western Australia, [2] University of Tasmania*</t>
+  </si>
+  <si>
+    <t>*Universiy of Western Australia*</t>
+  </si>
+  <si>
+    <t>*Edith Cowan University *</t>
+  </si>
+  <si>
+    <t>*Syracuse University*</t>
+  </si>
+  <si>
+    <t>*University of Melbourne*</t>
+  </si>
+  <si>
+    <t>*[1] University of Melbourne, [2] University of Newcastle, [3] Vanderbilt University, [4] NIH Research Laboratories*</t>
+  </si>
+  <si>
+    <t>*University of New South Wales*</t>
+  </si>
+  <si>
+    <t>*[1] The University of Melbourne, [2] Ghent University*</t>
+  </si>
+  <si>
+    <t>*[1] University of Western Australia, [2] Chinese Academy of Sciences*</t>
+  </si>
+  <si>
+    <t>*University of Newcastle*</t>
+  </si>
+  <si>
+    <t>*The Univeristy of Western Australia*</t>
+  </si>
+  <si>
+    <t>*[1] University of Melbourne, [2] Princeton University, [3] Max Planck Institute for Psycholinguistics, [4] University of Cologne*</t>
+  </si>
+  <si>
+    <t>*[1] University of Amsterdam, [2] University of Tasmania*</t>
+  </si>
+  <si>
+    <t>*[1] University of Newcastle, [2] Vanderbilt University*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *[1] University of New South Wales, [2] University of Western Australia*</t>
+  </si>
+  <si>
+    <t>*[1] University of Tasmania, [2] Vanderbilt University, [3] University of Newcastle, [4] University of Amsterdam*</t>
+  </si>
+  <si>
+    <t>*[1] University of New South Wales, [2] University of Oxford*</t>
+  </si>
+  <si>
+    <t>*[1] University of Adelaide, [2] University of Western Australia*</t>
+  </si>
+  <si>
+    <t>*University of Western Australia*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*The Chinese University of Hong Kong*
+</t>
+  </si>
+  <si>
+    <t>*University of Basel*</t>
+  </si>
+  <si>
+    <t>*[1] University of Western Australia, [2] University of Essex, [3] University of Warwick*</t>
+  </si>
+  <si>
+    <t>*[1] University of New South Wales, [2] University of Melbourne*</t>
+  </si>
+  <si>
+    <t>*[1] University of New South Wales, [2] Indiana University*</t>
+  </si>
+  <si>
+    <t>*Macquaire University*</t>
+  </si>
+  <si>
+    <t>*University of Zurich*</t>
+  </si>
+  <si>
+    <t>*[1] The University of Newcastle, [2] The University of Western Australia*</t>
+  </si>
+  <si>
+    <t>*The Ohio State University*</t>
+  </si>
+  <si>
+    <t>*[1] University of Melbourne, [2] Queen's University*</t>
+  </si>
+  <si>
+    <t>*The Australian National University *</t>
+  </si>
+  <si>
+    <t>*[1] University of Melbourne, [2] Trinity College, Dublin*</t>
+  </si>
+  <si>
+    <t>*[1] Technion (Israel Institute of Technology), [2] The Australian National University*</t>
+  </si>
+  <si>
+    <t>*[1] University of New South Wales, [2] Univeristy of Amerstdam*</t>
+  </si>
+  <si>
+    <t>*[1] University of Tasmania, [2] University Western Australia*</t>
+  </si>
+  <si>
+    <t>*[1] Murdoch University, [2] The University of Melbourne, [3] The University of Queensland*</t>
+  </si>
+  <si>
+    <t>*[1] University of Melbourne, [2] Univeristy of Queensland*</t>
+  </si>
+  <si>
+    <t>*University of Groningen *</t>
+  </si>
+  <si>
+    <t>*[1] The University of Melbourne, [2] University of Tasmania, [3] The Ohio State University*</t>
+  </si>
+  <si>
+    <r>
+      <t>Simon Dennis [1], Paul Garrett [2], Hyungwook Yim [1]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nathan Evans [3], &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vishnu Sreekumar [4]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Paul Dudgeon[</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1]</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>, Mariska Barendse[</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2]</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>, &amp; Yves Rosseel[</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2]</t>
     </r>
   </si>
   <si>
-    <t>Dudgeon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leverage is a measure of how far away one individual’s set of scores of 2 or more variables is from the scores of all other individuals.  Besides its usage in regression diagnostics, leverage is also used in estimators of the covariance matrix of regression parameters when standard assumptions of homoscedasticity and/or normality are violated---these are called heteroscedastic-consistent (HC) estimators in the literature, and they were originally proposed by Huber in the 1970s and by White in the 1980s.  Because linear regression is a particular form of structural equation modelling (SEM), HC-type estimators are theoretically possible in SEM also.  However, only White’s HCO estimator is currently available in SEM.  It is often referred to as a robust estimator or a sandwich estimator in the SEM literature.  This presentation develops leverage-based sandwich estimators for deriving standard errors and confidence intervals (CIs) in SEM.  These new estimators correspond to the HC3 estimator used in linear regression.  Our research shows that the current “robust” estimator used in SEM is not as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>robust</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as the appellation given to it implies.  More importantly, we show that the incorporation of leverage into the current sandwich estimator used in SEM results in much better coverage in CIs, even for samples sizes as low as 50 (where current estimator’s robustness bombs badly).   </t>
-    </r>
-  </si>
-  <si>
-    <t>**Paul Dudgeon**,  Mariska Barendse, &amp; Yves Rosseel</t>
-  </si>
-  <si>
-    <t>Ratcliff</t>
-  </si>
-  <si>
-    <t>**Trisha Nowland**</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>**Yonatan Vanunu**, Jared M. Hotaling, Ben R. Newell</t>
+    <t>The Linear Ballistic Accumulator (LBA; Brown &amp; Heathcote, 2008) model is one of the most popular choice  response time models in mathematical psychology. When fitting the LBA to experimental data,researchers are often interested in comparing two or more possibly non-nested model versions. The principled Bayesian solution to this problem is to compute posterior model probabilities and Bayes factors. Both quantities rely on the marginal likelihood of the models which is in many applications a high-dimensional integral that usually cannot be evaluated analytically. Here we illustrate how Warp-III bridge sampling (Meng &amp; Schilling, 2002) can be used to estimate the marginal likelihood for (hierarchical) LBA models. Warp-III sampling is an advanced version of bridge sampling that enables the efficient estimation of the marginal likelihood, even for cases in which the posterior distribution is skewed.</t>
+  </si>
+  <si>
+    <t>Amy Perfors &amp; Nicholas van Dam  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as Black Swan scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10 to 90 percent and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5 percent) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of black swan options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
+  </si>
+  <si>
+    <t>We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the "decision template" for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.
+We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the decision template for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2041,86 +2041,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2148,32 +2068,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2185,6 +2079,21 @@
       <color rgb="FF454545"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2581,7 +2490,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2825,103 +2734,50 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="303">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3562,1003 +3418,816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2334A-CD18-054E-891C-D966BF51A7E0}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" style="124"/>
-    <col min="2" max="2" width="38" style="124" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="124" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="124" customWidth="1"/>
-    <col min="6" max="6" width="47.1640625" style="122"/>
-    <col min="7" max="7" width="47.1640625" style="126"/>
-    <col min="8" max="16384" width="47.1640625" style="124"/>
+    <col min="1" max="1" width="31.83203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="137" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="137" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="137"/>
+    <col min="5" max="5" width="255.83203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="47.1640625" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="121" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="122" t="s">
+      <c r="C1" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="E1" s="137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="137" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="156" x14ac:dyDescent="0.3">
+      <c r="A16" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="137" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="E17" s="137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="137" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="137" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" s="137" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="137" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="137" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="137" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="130" x14ac:dyDescent="0.3">
+      <c r="A26" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" s="137" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="137" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="137" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="208" x14ac:dyDescent="0.3">
+      <c r="A32" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D32" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="137" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="137" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="137" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="137" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="137" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="137" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="137" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="130" x14ac:dyDescent="0.3">
+      <c r="A37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="137" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="124" t="s">
+      <c r="B38" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="137" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="126" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="124" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="122" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="137" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="137" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="137" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" s="137" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="137" t="s">
+        <v>412</v>
+      </c>
+      <c r="D41" s="137" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="137" t="s">
+        <v>413</v>
+      </c>
+      <c r="D42" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="137" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="137" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="137" t="s">
+        <v>372</v>
+      </c>
+      <c r="E43" s="137" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="E44" s="137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="137" t="s">
+        <v>414</v>
+      </c>
+      <c r="D45" s="137" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="122" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="126" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="124" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="126" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="124" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>362</v>
-      </c>
-      <c r="F10" s="150" t="s">
-        <v>361</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="126" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="125" t="s">
-        <v>336</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="126" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="124" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="124" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="124" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="126" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="124" t="s">
+      <c r="B46" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="D18" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="126" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="124" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="125" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="125" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="129" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="124" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="124" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="126" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="126" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="125" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="125" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="128" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="125" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="126" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="125" t="s">
-        <v>319</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="126" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>315</v>
-      </c>
-      <c r="F26" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="126" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" s="132" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="132" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>308</v>
-      </c>
-      <c r="D31" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="129" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="124" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="127" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="126" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="125" t="s">
-        <v>367</v>
-      </c>
-      <c r="B33" s="125" t="s">
-        <v>346</v>
-      </c>
-      <c r="C33" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="124" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="124" t="s">
-        <v>305</v>
-      </c>
-      <c r="D34" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="126" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="124" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>302</v>
-      </c>
-      <c r="D36" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38" s="124" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="122" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="122" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="124" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="126" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="D40" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="126" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="124" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="126" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="127" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="124" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" s="136" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="F43" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="G43" s="137" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="126" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124" t="s">
+      <c r="D46" s="137" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="124" t="s">
-        <v>287</v>
-      </c>
-      <c r="C46" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="150"/>
-      <c r="G47" s="152"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G48">
+  <sortState ref="A2:E48">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4584,25 +4253,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4631,11 +4300,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4643,28 +4312,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4672,25 +4341,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4698,25 +4367,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -4724,25 +4393,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
@@ -4751,10 +4420,10 @@
       </c>
       <c r="D8" s="102"/>
       <c r="G8" s="101" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -4766,28 +4435,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4795,25 +4464,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4821,25 +4490,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4847,25 +4516,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4873,25 +4542,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F14" s="119" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4899,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4911,28 +4580,28 @@
         <v>3</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="72" t="s">
+      <c r="I17" s="76" t="s">
         <v>6</v>
-      </c>
-      <c r="I17" s="76" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -4940,25 +4609,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -4966,25 +4635,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="68" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4992,25 +4661,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="104" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5020,10 +4689,10 @@
       <c r="D21" s="105"/>
       <c r="E21" s="106"/>
       <c r="G21" s="104" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I21" s="107" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5036,28 +4705,28 @@
         <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5065,25 +4734,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5091,25 +4760,25 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5117,25 +4786,25 @@
         <v>4</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H26" s="78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="79" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -5143,25 +4812,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -5170,10 +4839,10 @@
       </c>
       <c r="D28" s="82"/>
       <c r="G28" s="63" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I28" s="83" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
@@ -5185,28 +4854,28 @@
         <v>5</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5214,25 +4883,25 @@
         <v>5</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5240,25 +4909,25 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5267,25 +4936,25 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5294,25 +4963,25 @@
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5320,28 +4989,28 @@
         <v>5</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="108" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5351,10 +5020,10 @@
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
       <c r="G36" s="108" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I36" s="111" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5367,28 +5036,28 @@
         <v>6</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,25 +5065,25 @@
         <v>6</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5422,25 +5091,25 @@
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5448,25 +5117,25 @@
         <v>6</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F41" s="116" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" s="116" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5475,10 +5144,10 @@
       </c>
       <c r="D42" s="93"/>
       <c r="G42" s="63" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5490,28 +5159,28 @@
         <v>7</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5519,25 +5188,25 @@
         <v>7</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5545,25 +5214,25 @@
         <v>7</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,25 +5240,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5597,25 +5266,25 @@
         <v>7</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5623,25 +5292,25 @@
         <v>7</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D49" s="99" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E49" s="89" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I49" s="100" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.2">
@@ -5650,10 +5319,10 @@
       </c>
       <c r="D50" s="112"/>
       <c r="G50" s="108" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I50" s="113" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -5665,28 +5334,28 @@
         <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I52" s="45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5694,25 +5363,25 @@
         <v>8</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5720,25 +5389,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5747,25 +5416,25 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5774,25 +5443,25 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5800,25 +5469,25 @@
         <v>8</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F57" s="118" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G57" s="118" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I57" s="41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.2">
@@ -5826,22 +5495,22 @@
         <v>8</v>
       </c>
       <c r="C58" s="114" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D58" s="115" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E58" s="114" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F58" s="114" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G58" s="114" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I58" s="114" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,25 +5518,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F59" s="117" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G59" s="117" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5875,10 +5544,10 @@
         <v>8</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5886,7 +5555,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5908,1398 +5577,1398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A40" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="139"/>
-    <col min="3" max="3" width="17.83203125" style="139" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" style="140" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="139" customWidth="1"/>
-    <col min="6" max="7" width="17.83203125" style="139" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="139" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.83203125" style="141" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="139"/>
+    <col min="1" max="2" width="10.83203125" style="121"/>
+    <col min="3" max="3" width="17.83203125" style="121" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="121" customWidth="1"/>
+    <col min="6" max="7" width="17.83203125" style="121" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="117.83203125" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="139" t="s">
+      <c r="A1" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="121">
+        <v>1</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="123" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="121">
+        <v>1</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="121">
+        <v>1</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="121">
+        <v>1</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="121">
+        <v>1</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="121">
+        <v>1</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="121">
+        <v>1</v>
+      </c>
+      <c r="D9" s="124"/>
+      <c r="G9" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="124"/>
+      <c r="I10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="121">
+        <v>2</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="126" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="126">
+        <v>2</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="121">
+        <v>2</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="121">
+        <v>2</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="121">
+        <v>2</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="121">
+        <v>2</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="121">
+        <v>2</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="121">
+        <v>2</v>
+      </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="126"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="121">
+        <v>3</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="A21" s="121">
+        <v>3</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="121">
+        <v>3</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="139" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="121">
+        <v>3</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="121">
+        <v>3</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="121">
+        <v>3</v>
+      </c>
+      <c r="G25" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="124"/>
+      <c r="I26" s="125"/>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121">
+        <v>4</v>
+      </c>
+      <c r="B27" s="121" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="134" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="121">
+        <v>4</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="121">
+        <v>4</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A30" s="121">
+        <v>4</v>
+      </c>
+      <c r="B30" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="121">
+        <v>4</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="121">
+        <v>4</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="121">
+        <v>4</v>
+      </c>
+      <c r="D33" s="124"/>
+      <c r="G33" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="125"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="125"/>
+    </row>
+    <row r="36" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="121">
+        <v>5</v>
+      </c>
+      <c r="B36" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="121">
+        <v>5</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="121">
+        <v>5</v>
+      </c>
+      <c r="C38" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="121">
+        <v>5</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="121">
+        <v>5</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="132" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="121">
+        <v>5</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" s="129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="129"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="121">
+        <v>6</v>
+      </c>
+      <c r="B43" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="121">
+        <v>6</v>
+      </c>
+      <c r="C44" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="121">
+        <v>6</v>
+      </c>
+      <c r="C45" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="121">
+        <v>6</v>
+      </c>
+      <c r="C46" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="125" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="121">
+        <v>6</v>
+      </c>
+      <c r="C47" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="121">
+        <v>6</v>
+      </c>
+      <c r="C48" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="121">
+        <v>6</v>
+      </c>
+      <c r="D49" s="121"/>
+      <c r="G49" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="121" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="121"/>
+      <c r="I50" s="121"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="121">
+        <v>7</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="121">
+        <v>7</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="121">
+        <v>7</v>
+      </c>
+      <c r="C53" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A54" s="121">
+        <v>7</v>
+      </c>
+      <c r="C54" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="130" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="121">
+        <v>7</v>
+      </c>
+      <c r="C55" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A56" s="121">
+        <v>7</v>
+      </c>
+      <c r="E56" s="130"/>
+      <c r="G56" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" s="125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E57" s="130"/>
+      <c r="I57" s="125"/>
+    </row>
+    <row r="58" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A58" s="121">
         <v>8</v>
       </c>
-      <c r="D1" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="139" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="139" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="139">
-        <v>1</v>
-      </c>
-      <c r="G3" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="141" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="139">
-        <v>1</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139">
-        <v>1</v>
-      </c>
-      <c r="C5" s="139" t="s">
+      <c r="C58" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="121">
+        <v>8</v>
+      </c>
+      <c r="C59" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="142" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="141" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="139">
-        <v>1</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="143" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139">
-        <v>1</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" s="141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139">
-        <v>1</v>
-      </c>
-      <c r="C8" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139">
-        <v>1</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="G9" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="143" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="142"/>
-      <c r="I10" s="143"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="139">
-        <v>2</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="141" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="144" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144">
-        <v>2</v>
-      </c>
-      <c r="C12" s="154" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="157" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12" s="154" t="s">
-        <v>340</v>
-      </c>
-      <c r="F12" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="154" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="144" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="156" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="139">
-        <v>2</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="141" t="s">
+      <c r="H59" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" s="125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="121">
+        <v>8</v>
+      </c>
+      <c r="C60" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="131" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="121">
+        <v>8</v>
+      </c>
+      <c r="C61" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="125" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="139">
-        <v>2</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="140" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="139" t="s">
-        <v>369</v>
-      </c>
-      <c r="I14" s="139" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="139">
-        <v>2</v>
-      </c>
-      <c r="C15" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" s="141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="139">
-        <v>2</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="141" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="139">
-        <v>2</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="142" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="143" t="s">
+    <row r="62" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A62" s="121">
+        <v>8</v>
+      </c>
+      <c r="C62" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" s="125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="121">
+        <v>8</v>
+      </c>
+      <c r="C63" s="121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139">
-        <v>2</v>
-      </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="144"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="I19" s="153"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="139">
-        <v>3</v>
-      </c>
-      <c r="B20" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="139" t="s">
+      <c r="D63" s="122" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="141" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="38" x14ac:dyDescent="0.25">
-      <c r="A21" s="139">
-        <v>3</v>
-      </c>
-      <c r="C21" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="141" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="139">
-        <v>3</v>
-      </c>
-      <c r="C22" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="139" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="139">
-        <v>3</v>
-      </c>
-      <c r="C23" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="140" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="145" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="139">
-        <v>3</v>
-      </c>
-      <c r="C24" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="140" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="139">
-        <v>3</v>
-      </c>
-      <c r="G25" s="139" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" s="145" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="142"/>
-      <c r="I26" s="143"/>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="139">
-        <v>4</v>
-      </c>
-      <c r="B27" s="139" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="139" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" s="155" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="154" t="s">
-        <v>362</v>
-      </c>
-      <c r="F27" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="155" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="139">
-        <v>4</v>
-      </c>
-      <c r="C28" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="140" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="139" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="141" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="139">
-        <v>4</v>
-      </c>
-      <c r="C29" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="140" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="141" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A30" s="139">
-        <v>4</v>
-      </c>
-      <c r="B30" s="139" t="s">
+      <c r="F63" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="121">
+        <v>8</v>
+      </c>
+      <c r="E64" s="130"/>
+      <c r="G64" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A65" s="121">
+        <v>8</v>
+      </c>
+      <c r="D65" s="126"/>
+      <c r="E65" s="128"/>
+      <c r="I65" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="139" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="144" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>357</v>
-      </c>
-      <c r="F30" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="139">
-        <v>4</v>
-      </c>
-      <c r="C31" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="142" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="141" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="139">
-        <v>4</v>
-      </c>
-      <c r="C32" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="139">
-        <v>4</v>
-      </c>
-      <c r="D33" s="142"/>
-      <c r="G33" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="I33" s="143" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="143"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="143"/>
-    </row>
-    <row r="36" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="139">
-        <v>5</v>
-      </c>
-      <c r="B36" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="139">
-        <v>5</v>
-      </c>
-      <c r="C37" s="139" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="142" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="143" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="139">
-        <v>5</v>
-      </c>
-      <c r="C38" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="139" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="139" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="139">
-        <v>5</v>
-      </c>
-      <c r="C39" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="140" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="143" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="139">
-        <v>5</v>
-      </c>
-      <c r="C40" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="153" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I40" s="153" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="139">
-        <v>5</v>
-      </c>
-      <c r="G41" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="I41" s="147" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="147"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="139">
-        <v>6</v>
-      </c>
-      <c r="B43" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="139">
-        <v>6</v>
-      </c>
-      <c r="C44" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="140" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="139">
-        <v>6</v>
-      </c>
-      <c r="C45" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="139">
-        <v>6</v>
-      </c>
-      <c r="C46" s="139" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="139" t="s">
-        <v>259</v>
-      </c>
-      <c r="E46" s="139" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="139" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="143" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="139">
-        <v>6</v>
-      </c>
-      <c r="C47" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="140" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="141" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="139">
-        <v>6</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="144" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" s="143" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="139">
-        <v>6</v>
-      </c>
-      <c r="D49" s="139"/>
-      <c r="G49" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" s="139" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="139"/>
-      <c r="I50" s="139"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="139">
-        <v>7</v>
-      </c>
-      <c r="B51" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="140" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="139">
-        <v>7</v>
-      </c>
-      <c r="C52" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="140" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="139">
-        <v>7</v>
-      </c>
-      <c r="C53" s="139" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="144" t="s">
-        <v>285</v>
-      </c>
-      <c r="E53" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="143" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A54" s="139">
-        <v>7</v>
-      </c>
-      <c r="C54" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="E54" s="148" t="s">
-        <v>358</v>
-      </c>
-      <c r="F54" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="143" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="139">
-        <v>7</v>
-      </c>
-      <c r="C55" s="139" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="140" t="s">
-        <v>270</v>
-      </c>
-      <c r="E55" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I55" s="141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A56" s="139">
-        <v>7</v>
-      </c>
-      <c r="E56" s="148"/>
-      <c r="G56" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="I56" s="143" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="E57" s="148"/>
-      <c r="I57" s="143"/>
-    </row>
-    <row r="58" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A58" s="139">
-        <v>8</v>
-      </c>
-      <c r="C58" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="140" t="s">
-        <v>359</v>
-      </c>
-      <c r="E58" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="141" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="139">
-        <v>8</v>
-      </c>
-      <c r="C59" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="140" t="s">
-        <v>229</v>
-      </c>
-      <c r="E59" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I59" s="143" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="139">
-        <v>8</v>
-      </c>
-      <c r="C60" s="139" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" s="149" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="139" t="s">
-        <v>254</v>
-      </c>
-      <c r="G60" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="I60" s="149" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="139">
-        <v>8</v>
-      </c>
-      <c r="C61" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="142" t="s">
-        <v>268</v>
-      </c>
-      <c r="E61" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I61" s="143" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A62" s="139">
-        <v>8</v>
-      </c>
-      <c r="C62" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="140" t="s">
-        <v>360</v>
-      </c>
-      <c r="E62" s="139" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I62" s="143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="139">
-        <v>8</v>
-      </c>
-      <c r="C63" s="139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="140" t="s">
-        <v>269</v>
-      </c>
-      <c r="E63" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="I63" s="141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A64" s="139">
-        <v>8</v>
-      </c>
-      <c r="E64" s="148"/>
-      <c r="G64" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="141" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A65" s="139">
-        <v>8</v>
-      </c>
-      <c r="D65" s="144"/>
-      <c r="E65" s="146"/>
-      <c r="I65" s="141" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="66" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="D66" s="144"/>
-      <c r="E66" s="146"/>
-      <c r="I66" s="139"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="128"/>
+      <c r="I66" s="121"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="139"/>
-      <c r="I68" s="139"/>
+      <c r="D68" s="121"/>
+      <c r="I68" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/programme/Maths Psych_V2.xlsx
+++ b/programme/Maths Psych_V2.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="43920" windowHeight="23320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="50220" windowHeight="26660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstracts" sheetId="5" r:id="rId1"/>
     <sheet name="Suggested Sessions" sheetId="3" r:id="rId2"/>
     <sheet name="Session Plan 2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="424">
   <si>
     <t>Title</t>
   </si>
@@ -150,15 +150,6 @@
   </si>
   <si>
     <t>University of Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This project uses Bayesian Linear Ballistic Accumulator (LBA) models of decision-making to model the cognitive control mechanisms that aid prospective memory (PM) and ongoing task performance in a complex and dynamic air-traffic control (ATC) simulation. We aim to explain how operators balance competing demands from ongoing and PM tasks under different levels of time pressure, task load, and relative response importance.
-The ATC task involved classifying pairs of moving aircraft as either 'in-conflict' or 'not in-conflict'. On some trials aircraft also contained a PM target which required execution of an atypical PM response. These decisions require the integration of multiple information sources (e.g., relative distance, airspeed) on a dynamic display while balancing several competing task requirements (e.g., time pressure, PM demands, relative response importance). Moreover, decisions typically unfolded over relatively long time-scales (up to 10 seconds). Initial work suggests that models of simple choice such as the LBA can account for ongoing and PM task performance in these complex, long time-scale, less controlled applied settings. 
-Our modelling shows evidence of both proactive and reactive control mechanisms. In terms of proactive control, response thresholds were higher under PM load. This suggests individuals proactively raise ongoing task thresholds when holding PM intentions. This effect was larger when the importance of the PM task was emphasised and smaller when the importance of the ongoing task was emphasised. This suggests that holding PM intentions encourages operators to make deliberate strategic adjustments to how they perform their primary ongoing task, and that these adjustments vary systematically as a function of PM task importance. 
-In terms of reactive adaptation, accumulation rates for ongoing task stimuli were lower when they also contained a PM target compared to when the same stimuli did not contain a PM target. For example, the rate for the in-conflict accumulator was lower for in-conflict PM targets compared to in-conflict aircraft that were not PM targets. The same pattern was observed for non-conflict aircraft, suggesting PM stimuli automatically inhibit or suppress the evidence accumulation process for congruent on-going task responses. In line with a dual-mechanisms theory of cognitive control, our modelling suggests PM performance is a function of both deliberate ‘proactive’ and automatic ‘reactive’ cognitive control mechanisms. 
-w they perform their primary ongoing task, and that these adjustments vary systematically as a function of PM task importance. 
-In terms of reactive adaptation, accumulation rates for ongoing task stimuli were lower when they also contained a PM target compared to when the same stimuli did not contain a PM target. For example, the rate for the in-conflict accumulator was lower for in-conflict PM targets compared to in-conflict aircraft that were not PM targets. The same pattern was observed for non-conflict aircraft, suggesting PM stimuli automatically inhibit or suppress the evidence accumulation process for congruent on-going task responses. In line with a dual-mechanisms theory of cognitive control, our modelling suggests PM performance is a function of both deliberate ‘proactive’ and automatic ‘reactive’ cognitive control mechanisms. 
-</t>
   </si>
   <si>
     <t>University of Western Ausrtralia, University of Tasmania, , University of Tasmania University of Western Australia</t>
@@ -407,11 +398,6 @@
     <t>UNSW, University of Melbourne</t>
   </si>
   <si>
-    <t xml:space="preserve">Decisions from experience often differ from decisions based on described alternatives. This may stem from the fact that decisions from experience require that individuals learn about their choice alternatives by observing potential outcomes. We investigated the roles of attention and memory in the choice process by comparing two types of decision procedures: a) one where monetary value information is present during sampling, and b) one where values are revealed after sampling. In three experiments participants made a series of choices between pairs of risky gambles represented as urns containing different mixtures of blue and red balls. They began each trial by sampling balls from each urn. After observing a representative sample from each urn, participants chose which urn they would like to draw from for a consequential payment. In Experiment 3 some outcome samples were highlighted to increase visual and auditory salience.
-Results from all three experiments suggest that individuals place greater weight on rare events when outcome values are absent during sampling. This pattern is roughly consistent with the ‘description-experience gap’, in which decisions from description – which likewise involve separable representations of value and probability information – also indicate greater weighting of rare events relative to decisions from experience – which do not. In Experiment 3, we found that highlighting a rare reward increased its salience when outcome values were present, but not when they were absent, suggesting that highlighting rare outcome values during sampling led participants to place greater weight on these outcomes when making their choices. Parameter estimates from a hierarchical Bayesian prospect theory model supported the conclusion that value-absent choices involved greater overweighting of rare events. We discuss the implications of these findings on our understanding of the interplay between attention, memory, and choice. 
-</t>
-  </si>
-  <si>
     <t>The effects of outcome information during sampling on decisions from experience</t>
   </si>
   <si>
@@ -452,9 +438,6 @@
   </si>
   <si>
     <t>Mason</t>
-  </si>
-  <si>
-    <t>Retrieving samples from memory is a critical tool for decision-making. In a series of experiments, we introduce incentive compatible methods to investigate the extent to which memory predicts evaluation. We present participants with a sequence of monetary values and ask them to complete both a free-recall task and a willingness to- pay (WTP) task. We then predict WTP from both the items that were recalled and those that were presented. We also discuss how the position of a value in a sequence determines evaluation. Our findings consistently show substantial evidence in favour of a memory based model of evaluation, even when participants are aware of the upcoming evaluation task. </t>
   </si>
   <si>
     <t>UWA, University of Essex, University of Warwick</t>
@@ -679,9 +662,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Newell</t>
-  </si>
-  <si>
     <t>Once more, with feeling: deferred feedback does not “sharply dissociate” ‘implicit’ and ‘explicit’ category learning.</t>
   </si>
   <si>
@@ -1298,13 +1278,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Risky choice involves selection between two or more options each of which is a set of n ordered pairs, , where xi is a (positive, negative, or zero) payoff and pi is its probability of occurrence, with  .  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of simple scalability and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, A and B, with the probability of choosing A over B,  . We presented groups of participants with 30 variable gambles (A) each paired with one of four fixed gambles (B) and tested the prediction of fixed utility models that   has the same order over A for all B using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.
-References
-Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. Psychological Review, 100, 432–459.
-Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. Journal of Mathematical Psychology, 70, 1-11
-Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. Journal of Risk and Uncertainty, 5(4), 297–323.</t>
-  </si>
-  <si>
     <t>In the past decades, numerous studies have investigated how people adapt their decision making processes in response to cognitive demands. However, those studies have almost exclusively considered paradigms in which all relevant information is presented simultaneously and conveniently to participants (i.e. Decisions from Description), and therefore, very little is known about how people adjust their decision processes due to increases in cognitive demands in Decisions from Experience.  In order to address this issue, we suggest an adaptive mechanism that is guided by an optimal performance-effort trade-off and by the task's goal.  Previous studies have shown that different tasks' goals in experience based decisions reveal evidence for different underlying processes. Specifically, it has been argued that extreme values are often overweighted in preferential choices (e.g. Tsetsos et..al, 2012), but underweighted in perceptual choices (e.g. Vandormael, et. al., 2017). In order to investigate this discrepancy and the effect of cognitive load on these mechanisms, we applied a novel paradigm in two experiments, in which the tasks’ goal was manipulated within subjects. In both versions participants were presented with an array of numbers. In the ‘Preferential’ task they had to choose between a fixed reward and a gamble with an equal chance of winning any of one of the numbers in the array. In the ‘Perceptual’ task the goal was to decide whether the fixed value was higher than the average of the numbers in the array. Cognitive load was manipulated between subjects by applying different time constraints for the array display, and the variance of the arrays was manipulated within subjects in order to test the impact of extreme values. Findings show that in the ‘Preferential’ task under high cognitive load settings, subjects tended to pick the array more often when it had high variance (i.e. risk seeking), while variance had no effect in the ‘perceptual’ task nor under moderate cognitive load settings in either task. These findings are consistent with the idea that extreme values influence risk preference especially when cognitive resources are scarce.</t>
   </si>
   <si>
@@ -1565,140 +1538,6 @@
     <t>Misinformation often affects inferences and judgments even after it has been retracted and discredited. This is known as the continued influence effect. Memory processes have been theorized to contribute to the continued influence effect, and much previous research has focussed on the role of long-term memory processes at the time misinformation is retrieved during inferential reasoning and judgments. Recently, however, experimental research has focussed upon the role of working memory (WM) processes engaged in the updating and integration of information, when the retraction is encoded. From an individual differences perspective, susceptibility to continued influence effects should be predicted by a person’s WM abilities, if continued reliance on misinformation is influenced, at least in part, by insufficient integration of the initial misinformation and its subsequent retraction. Consequently, we hypothesized that WM capacity would predict susceptibility to continued influence effects uniquely, positively, and more substantially than short-term memory (STM) capacity. Participants (N = 216) completed a continued-influence task, as well as a battery of WM and STM capacity tasks. Based on a latent variable model, our hypothesis was supported (WM capacity: beta = .36, p = .013; STM capacity: beta = -.22, p = .187). Consequently, we suggest that WM capacity is a measurable “risk factor” for continued reliance on misinformation.</t>
   </si>
   <si>
-    <t>**Human information processing in the face of reward versus punishment**</t>
-  </si>
-  <si>
-    <t>**Modelling Cognitive Control Mechanisms in Simulated Air-Traffic Control**</t>
-  </si>
-  <si>
-    <t>**Working memory capacity predicts ongoing reliance on misinformation: A latent-variable analysis**</t>
-  </si>
-  <si>
-    <t>**The prediction game: A simple pedagogical tool to introduce Bayesian inference**</t>
-  </si>
-  <si>
-    <t>**Output Interference and Release in Cued Recall: The role of learning during test and a response filter**</t>
-  </si>
-  <si>
-    <t>**Near neighbour judgements as an efficient way to estimate semantic similarity.**</t>
-  </si>
-  <si>
-    <t>**Predicting memory for WHEN**</t>
-  </si>
-  <si>
-    <t>**Inferring task-specific psychological representation**</t>
-  </si>
-  <si>
-    <t>**Leverage-based confidence intervals for structural equation modelling.**</t>
-  </si>
-  <si>
-    <t>**Models of risky choice: A signed difference analysis**</t>
-  </si>
-  <si>
-    <t>**Competitive Decision Making in Dutch Auctions**</t>
-  </si>
-  <si>
-    <t>**Applying the Cultural Ratchet to a Social Artefact: The Cumulative Cultural Evolution of a Language Game**</t>
-  </si>
-  <si>
-    <t>**The Decision Decoding Toolbox (DDTBOX) - A multivariate pattern analysis toolbox for event-related potentials**</t>
-  </si>
-  <si>
-    <t>**Modelling condition order effects: Interference, learning, and decision strategies**</t>
-  </si>
-  <si>
-    <t>**Warp-III Bridge Sampling for Comparing LBA Models**</t>
-  </si>
-  <si>
-    <t>**Normative theories are nice, but people aren’t always normative: Comparing collapsing and fixed threshold models of speeded decision making**</t>
-  </si>
-  <si>
-    <t>**The dimensionality of reasoning: Inductive and deductive inference can be explained by a single process**</t>
-  </si>
-  <si>
-    <t>**Priming and Variable Control  in Choice Conflict Tasks**</t>
-  </si>
-  <si>
-    <t>**The effects of outcome information during sampling on decisions from experience**</t>
-  </si>
-  <si>
-    <t>**Evaluating Signal Detection Models for Eyewitness Identification**</t>
-  </si>
-  <si>
-    <t>**The Role of Working Memory in Free Recall: The Effect of Preload at Retrieval**</t>
-  </si>
-  <si>
-    <t>**Characterising the architecture and integration rule of change detection decisions**</t>
-  </si>
-  <si>
-    <t>**Lie-algebraic Approach for the Leaky Competing Accumulator Model of Decision Making**</t>
-  </si>
-  <si>
-    <t>**Evaluating bundles of numbers: assessing the trade-off between memory and online updating in retrospective evaluation**</t>
-  </si>
-  <si>
-    <t>**Extensional and intensional reasoning: A Bayesian perspective on the conjunction fallacy**</t>
-  </si>
-  <si>
-    <t>**Once more, with feeling: deferred feedback does not “sharply dissociate” ‘implicit’ and ‘explicit’ category learning.**</t>
-  </si>
-  <si>
-    <t>**Mathematical Set Theory for Latent Variable Modelling in Psychology Research**</t>
-  </si>
-  <si>
-    <t>**An Interference Model of Visual Working Memory: Applications to Change Detection**</t>
-  </si>
-  <si>
-    <t>**Modeling response time distributions of free recall initiation with race models**</t>
-  </si>
-  <si>
-    <t>**Decision-making in black swan environments**</t>
-  </si>
-  <si>
-    <t>**Modeling Numeracy Decisions on a Continuous Scale**</t>
-  </si>
-  <si>
-    <t>**Semantic contrast effects: a holographic interface linking episodic and semantic memory**</t>
-  </si>
-  <si>
-    <t>**How Do People Think About the Probability of Human Extinction?**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Modelling Speeded Multielement Decision Making as Diffusion in a Hypersphere**
-</t>
-  </si>
-  <si>
-    <t>**Assessing Robustness of Statistical Models: Info-Gap Theory**</t>
-  </si>
-  <si>
-    <t>**Disappearing dissociations in experimental psychology: Using state-trace analysis to test for multiple processes**</t>
-  </si>
-  <si>
-    <t>**Modelling Prospective Memory in Simulated Maritime Surveillance: Cognitive Control and Competition for Capacity**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Alternative statistical frameworks for communicating the strength of forensic evidence in court**
-</t>
-  </si>
-  <si>
-    <t>**The role of prediction error and confidence in sequential decisions **</t>
-  </si>
-  <si>
-    <t>**Credible Confidence: A pragmatic view on the frequentist vs Bayesian debate**</t>
-  </si>
-  <si>
-    <t>**The Impact of Goal and Cognitive Load on Decisions from Experience.**</t>
-  </si>
-  <si>
-    <t>**An Egocentric Bias is Important to Adaptive Social Learning**</t>
-  </si>
-  <si>
-    <t>**Decision-Making in Source Memory: Re-evaluating the Thresholded Nature of Source Memory Retrieval**</t>
-  </si>
-  <si>
-    <t>**Decomposing Different Sources of Interference in Recognition Memory Development - a Computational Modeling Approach**</t>
-  </si>
-  <si>
     <t>*University of Queensland*</t>
   </si>
   <si>
@@ -1926,14 +1765,181 @@
     <t>The Linear Ballistic Accumulator (LBA; Brown &amp; Heathcote, 2008) model is one of the most popular choice  response time models in mathematical psychology. When fitting the LBA to experimental data,researchers are often interested in comparing two or more possibly non-nested model versions. The principled Bayesian solution to this problem is to compute posterior model probabilities and Bayes factors. Both quantities rely on the marginal likelihood of the models which is in many applications a high-dimensional integral that usually cannot be evaluated analytically. Here we illustrate how Warp-III bridge sampling (Meng &amp; Schilling, 2002) can be used to estimate the marginal likelihood for (hierarchical) LBA models. Warp-III sampling is an advanced version of bridge sampling that enables the efficient estimation of the marginal likelihood, even for cases in which the posterior distribution is skewed.</t>
   </si>
   <si>
-    <t>Amy Perfors &amp; Nicholas van Dam  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as Black Swan scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10 to 90 percent and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5 percent) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of black swan options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
-  </si>
-  <si>
-    <t>We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the "decision template" for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.
-We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the decision template for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.</t>
+    <t>**HUMAN INFORMATION PROCESSING IN THE FACE OF REWARD VERSUS PUNISHMENT**</t>
+  </si>
+  <si>
+    <t>**MODELLING COGNITIVE CONTROL MECHANISMS IN SIMULATED AIR-TRAFFIC CONTROL**</t>
+  </si>
+  <si>
+    <t>**WORKING MEMORY CAPACITY PREDICTS ONGOING RELIANCE ON MISINFORMATION: A LATENT-VARIABLE ANALYSIS**</t>
+  </si>
+  <si>
+    <t>**THE PREDICTION GAME: A SIMPLE PEDAGOGICAL TOOL TO INTRODUCE BAYESIAN INFERENCE**</t>
+  </si>
+  <si>
+    <t>**OUTPUT INTERFERENCE AND RELEASE IN CUED RECALL: THE ROLE OF LEARNING DURING TEST AND A RESPONSE FILTER**</t>
+  </si>
+  <si>
+    <t>**NEAR NEIGHBOUR JUDGEMENTS AS AN EFFICIENT WAY TO ESTIMATE SEMANTIC SIMILARITY.**</t>
+  </si>
+  <si>
+    <t>**PREDICTING MEMORY FOR WHEN**</t>
+  </si>
+  <si>
+    <t>**INFERRING TASK-SPECIFIC PSYCHOLOGICAL REPRESENTATION**</t>
+  </si>
+  <si>
+    <t>**LEVERAGE-BASED CONFIDENCE INTERVALS FOR STRUCTURAL EQUATION MODELLING.**</t>
+  </si>
+  <si>
+    <t>**MODELS OF RISKY CHOICE: A SIGNED DIFFERENCE ANALYSIS**</t>
+  </si>
+  <si>
+    <t>**COMPETITIVE DECISION MAKING IN DUTCH AUCTIONS**</t>
+  </si>
+  <si>
+    <t>**APPLYING THE CULTURAL RATCHET TO A SOCIAL ARTEFACT: THE CUMULATIVE CULTURAL EVOLUTION OF A LANGUAGE GAME**</t>
+  </si>
+  <si>
+    <t>**THE DECISION DECODING TOOLBOX (DDTBOX) - A MULTIVARIATE PATTERN ANALYSIS TOOLBOX FOR EVENT-RELATED POTENTIALS**</t>
+  </si>
+  <si>
+    <t>**MODELLING CONDITION ORDER EFFECTS: INTERFERENCE, LEARNING, AND DECISION STRATEGIES**</t>
+  </si>
+  <si>
+    <t>**WARP-III BRIDGE SAMPLING FOR COMPARING LBA MODELS**</t>
+  </si>
+  <si>
+    <t>**NORMATIVE THEORIES ARE NICE, BUT PEOPLE AREN’T ALWAYS NORMATIVE: COMPARING COLLAPSING AND FIXED THRESHOLD MODELS OF SPEEDED DECISION MAKING**</t>
+  </si>
+  <si>
+    <t>**THE DIMENSIONALITY OF REASONING: INDUCTIVE AND DEDUCTIVE INFERENCE CAN BE EXPLAINED BY A SINGLE PROCESS**</t>
+  </si>
+  <si>
+    <t>**PRIMING AND VARIABLE CONTROL  IN CHOICE CONFLICT TASKS**</t>
+  </si>
+  <si>
+    <t>**THE EFFECTS OF OUTCOME INFORMATION DURING SAMPLING ON DECISIONS FROM EXPERIENCE**</t>
+  </si>
+  <si>
+    <t>**EVALUATING SIGNAL DETECTION MODELS FOR EYEWITNESS IDENTIFICATION**</t>
+  </si>
+  <si>
+    <t>**THE ROLE OF WORKING MEMORY IN FREE RECALL: THE EFFECT OF PRELOAD AT RETRIEVAL**</t>
+  </si>
+  <si>
+    <t>**CHARACTERISING THE ARCHITECTURE AND INTEGRATION RULE OF CHANGE DETECTION DECISIONS**</t>
+  </si>
+  <si>
+    <t>**LIE-ALGEBRAIC APPROACH FOR THE LEAKY COMPETING ACCUMULATOR MODEL OF DECISION MAKING**</t>
+  </si>
+  <si>
+    <t>**EVALUATING BUNDLES OF NUMBERS: ASSESSING THE TRADE-OFF BETWEEN MEMORY AND ONLINE UPDATING IN RETROSPECTIVE EVALUATION**</t>
+  </si>
+  <si>
+    <t>**EXTENSIONAL AND INTENSIONAL REASONING: A BAYESIAN PERSPECTIVE ON THE CONJUNCTION FALLACY**</t>
+  </si>
+  <si>
+    <t>**ONCE MORE, WITH FEELING: DEFERRED FEEDBACK DOES NOT “SHARPLY DISSOCIATE” ‘IMPLICIT’ AND ‘EXPLICIT’ CATEGORY LEARNING.**</t>
+  </si>
+  <si>
+    <t>**MATHEMATICAL SET THEORY FOR LATENT VARIABLE MODELLING IN PSYCHOLOGY RESEARCH**</t>
+  </si>
+  <si>
+    <t>**AN INTERFERENCE MODEL OF VISUAL WORKING MEMORY: APPLICATIONS TO CHANGE DETECTION**</t>
+  </si>
+  <si>
+    <t>**MODELING RESPONSE TIME DISTRIBUTIONS OF FREE RECALL INITIATION WITH RACE MODELS**</t>
+  </si>
+  <si>
+    <t>**DECISION-MAKING IN BLACK SWAN ENVIRONMENTS**</t>
+  </si>
+  <si>
+    <t>**MODELING NUMERACY DECISIONS ON A CONTINUOUS SCALE**</t>
+  </si>
+  <si>
+    <t>**SEMANTIC CONTRAST EFFECTS: A HOLOGRAPHIC INTERFACE LINKING EPISODIC AND SEMANTIC MEMORY**</t>
+  </si>
+  <si>
+    <t>**HOW DO PEOPLE THINK ABOUT THE PROBABILITY OF HUMAN EXTINCTION?**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**MODELLING SPEEDED MULTIELEMENT DECISION MAKING AS DIFFUSION IN A HYPERSPHERE**
+</t>
+  </si>
+  <si>
+    <t>**ASSESSING ROBUSTNESS OF STATISTICAL MODELS: INFO-GAP THEORY**</t>
+  </si>
+  <si>
+    <t>**DISAPPEARING DISSOCIATIONS IN EXPERIMENTAL PSYCHOLOGY: USING STATE-TRACE ANALYSIS TO TEST FOR MULTIPLE PROCESSES**</t>
+  </si>
+  <si>
+    <t>**MODELLING PROSPECTIVE MEMORY IN SIMULATED MARITIME SURVEILLANCE: COGNITIVE CONTROL AND COMPETITION FOR CAPACITY**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**ALTERNATIVE STATISTICAL FRAMEWORKS FOR COMMUNICATING THE STRENGTH OF FORENSIC EVIDENCE IN COURT**
+</t>
+  </si>
+  <si>
+    <t>**THE ROLE OF PREDICTION ERROR AND CONFIDENCE IN SEQUENTIAL DECISIONS **</t>
+  </si>
+  <si>
+    <t>**CREDIBLE CONFIDENCE: A PRAGMATIC VIEW ON THE FREQUENTIST VS BAYESIAN DEBATE**</t>
+  </si>
+  <si>
+    <t>**THE IMPACT OF GOAL AND COGNITIVE LOAD ON DECISIONS FROM EXPERIENCE.**</t>
+  </si>
+  <si>
+    <t>**AN EGOCENTRIC BIAS IS IMPORTANT TO ADAPTIVE SOCIAL LEARNING**</t>
+  </si>
+  <si>
+    <t>**DECOMPOSING DIFFERENT SOURCES OF INTERFERENCE IN RECOGNITION MEMORY DEVELOPMENT - A COMPUTATIONAL MODELING APPROACH**</t>
+  </si>
+  <si>
+    <t>**DECISION-MAKING IN SOURCE MEMORY: RE-EVALUATING THE THRESHOLDED NATURE OF SOURCE MEMORY RETRIEVAL**</t>
+  </si>
+  <si>
+    <t>**USING RESPONSE TIMES TO DISTINGUISH BETWEEN ATTRIBUTE-WISE AND ALTERNATE-WISE MODELS OF INTER-TEMPORAL CHOICE.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as &amp;#39;Black Swan&amp;#39; scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10&amp;#37; to 90 &amp;#37; and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5 &amp;#37;) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of &amp;#39;black swan&amp;#39; options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the &amp;#39;decision template&amp;#39; for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.
+</t>
+  </si>
+  <si>
+    <t>Amy Perfors &amp; Nicholas van Dam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisions from experience often differ from decisions based on described alternatives. This may stem from the fact that decisions from experience require that individuals learn about their choice alternatives by observing potential outcomes. We investigated the roles of attention and memory in the choice process by comparing two types of decision procedures: a) one where monetary value information is present during sampling, and b) one where values are revealed after sampling. In three experiments participants made a series of choices between pairs of risky gambles represented as urns containing different mixtures of blue and red balls. They began each trial by sampling balls from each urn. After observing a representative sample from each urn, participants chose which urn they would like to draw from for a consequential payment. In Experiment 3 some outcome samples were highlighted to increase visual and auditory salience.
+Results from all three experiments suggest that individuals place greater weight on rare events when outcome values are absent during sampling. This pattern is roughly consistent with the ‘description-experience gap’, in which decisions from description – which likewise involve separable representations of value and probability information – also indicate greater weighting of rare events relative to decisions from experience – which do not. In Experiment 3, we found that highlighting a rare reward increased its salience when outcome values were present, but not when they were absent, suggesting that highlighting rare outcome values during sampling led participants to place greater weight on these outcomes when making their choices. Parameter estimates from a hierarchical Bayesian prospect theory model supported the conclusion that value-absent choices involved greater overweighting of rare events. We discuss the implications of these findings on our understanding of the interplay between attention, memory, and choice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project uses Bayesian Linear Ballistic Accumulator (LBA) models of decision-making to model the cognitive control mechanisms that aid prospective memory (PM) and ongoing task performance in a complex and dynamic air-traffic control (ATC) simulation. We aim to explain how operators balance competing demands from ongoing and PM tasks under different levels of time pressure, task load, and relative response importance.
+The ATC task involved classifying pairs of moving aircraft as either 'in-conflict' or 'not in-conflict'. On some trials aircraft also contained a PM target which required execution of an atypical PM response. These decisions require the integration of multiple information sources (e.g., relative distance, airspeed) on a dynamic display while balancing several competing task requirements (e.g., time pressure, PM demands, relative response importance). Moreover, decisions typically unfolded over relatively long time-scales (up to 10 seconds). Initial work suggests that models of simple choice such as the LBA can account for ongoing and PM task performance in these complex, long time-scale, less controlled applied settings. 
+Our modelling shows evidence of both proactive and reactive control mechanisms. In terms of proactive control, response thresholds were higher under PM load. This suggests individuals proactively raise ongoing task thresholds when holding PM intentions. This effect was larger when the importance of the PM task was emphasised and smaller when the importance of the ongoing task was emphasised. This suggests that holding PM intentions encourages operators to make deliberate strategic adjustments to how they perform their primary ongoing task, and that these adjustments vary systematically as a function of PM task importance. 
+</t>
+  </si>
+  <si>
+    <t>Risky choice involves selection between two or more options each of which is a set of n ordered pairs, , where xi is a (positive, negative, or zero) payoff and pi is its probability of occurrence, with  .  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of simple scalability and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, A and B, with the probability of choosing A over B,  . We presented groups of participants with 30 variable gambles (A) each paired with one of four fixed gambles (B) and tested the prediction of fixed utility models that   has the same order over A for all B using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.
+References 
+Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. Psychological Review, 100, 432–459.
+Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. Journal of Mathematical Psychology, 70, 1-11
+Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. Journal of Risk and Uncertainty, 5(4), 297–323.</t>
+  </si>
+  <si>
+    <t>Mullard</t>
+  </si>
+  <si>
+    <t>Blunden</t>
+  </si>
+  <si>
+    <t>Le Pelley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben-Haim </t>
   </si>
 </sst>
 </file>
@@ -2490,7 +2496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2777,6 +2783,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -3419,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3431,11 +3440,11 @@
     <col min="2" max="2" width="38" style="137" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" style="137" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" style="137"/>
-    <col min="5" max="5" width="255.83203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150.1640625" style="137" customWidth="1"/>
     <col min="6" max="16384" width="47.1640625" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
         <v>7</v>
       </c>
@@ -3449,777 +3458,775 @@
         <v>0</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="137" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="182" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="139"/>
+    </row>
+    <row r="4" spans="1:6" ht="312" x14ac:dyDescent="0.3">
+      <c r="A4" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="137" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="260" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="312" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="E11" s="137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="364" x14ac:dyDescent="0.3">
+      <c r="A12" s="137" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="137" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="137" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="390" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="137" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="137" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="137" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="137" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="137" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="137" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="137" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="137" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="137" t="s">
+      <c r="D16" s="137" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>338</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="137" t="s">
+      <c r="E16" s="137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+      <c r="A17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="137" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="137" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="137" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="137" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="137" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="137" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="137" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="137" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="156" x14ac:dyDescent="0.3">
-      <c r="A16" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="137" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="137" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>347</v>
-      </c>
       <c r="E17" s="137" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E18" s="137" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="137" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="137" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+      <c r="A20" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="137" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="137" t="s">
-        <v>392</v>
-      </c>
-      <c r="D19" s="137" t="s">
-        <v>349</v>
-      </c>
-      <c r="E19" s="137" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>393</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="E20" s="137" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="E21" s="137" t="s">
-        <v>23</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="B22" s="137" t="s">
         <v>289</v>
       </c>
       <c r="C22" s="137" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D22" s="137" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="E22" s="137" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="137" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B23" s="137" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E23" s="137" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="137" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="137" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="138" t="s">
-        <v>396</v>
-      </c>
-      <c r="D24" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="137" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="137" t="s">
-        <v>397</v>
-      </c>
-      <c r="D25" s="137" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="137" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="137" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="130" x14ac:dyDescent="0.3">
-      <c r="A26" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="137" t="s">
-        <v>398</v>
-      </c>
-      <c r="D26" s="137" t="s">
-        <v>355</v>
-      </c>
-      <c r="E26" s="137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="130" x14ac:dyDescent="0.3">
       <c r="A27" s="137" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>356</v>
-      </c>
-      <c r="E27" s="137" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A28" s="137" t="s">
-        <v>165</v>
+        <v>420</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E28" s="137" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="234" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="137" t="s">
+      <c r="C30" s="137" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A31" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="137" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A32" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A33" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+      <c r="A34" s="137" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="137" t="s">
+        <v>399</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A35" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="137" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="137" t="s">
+        <v>400</v>
+      </c>
+      <c r="E35" s="137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A36" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="137" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="E36" s="137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="137" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="137" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="137" t="s">
+      <c r="D37" s="137" t="s">
         <v>402</v>
       </c>
-      <c r="D30" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="E30" s="137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="137" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="137" t="s">
-        <v>403</v>
-      </c>
-      <c r="D31" s="137" t="s">
-        <v>360</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="208" x14ac:dyDescent="0.3">
-      <c r="A32" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="C32" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="D32" s="137" t="s">
-        <v>361</v>
-      </c>
-      <c r="E32" s="137" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="137" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="137" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="137" t="s">
-        <v>404</v>
-      </c>
-      <c r="D33" s="137" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" s="137" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="137" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="137" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="137" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="137" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="137" t="s">
-        <v>406</v>
-      </c>
-      <c r="D35" s="137" t="s">
-        <v>364</v>
-      </c>
-      <c r="E35" s="137" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="137" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="137" t="s">
-        <v>407</v>
-      </c>
-      <c r="D36" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" s="137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="130" x14ac:dyDescent="0.3">
-      <c r="A37" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" s="137" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="137" t="s">
-        <v>366</v>
-      </c>
       <c r="E37" s="137" t="s">
-        <v>26</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="137" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="137" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" s="137" t="s">
         <v>92</v>
-      </c>
-      <c r="B38" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="137" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" s="137" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39" s="137" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="137" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="E39" s="137" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="364" x14ac:dyDescent="0.3">
       <c r="A40" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="137" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="137" t="s">
+        <v>406</v>
+      </c>
+      <c r="E40" s="137" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>411</v>
-      </c>
-      <c r="D40" s="137" t="s">
-        <v>369</v>
-      </c>
-      <c r="E40" s="137" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="137" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C41" s="137" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="D41" s="137" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="E41" s="137" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A42" s="137" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B42" s="137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C42" s="137" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="D42" s="137" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="E42" s="137" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" s="137" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C43" s="137" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="D43" s="137" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="E43" s="137" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A44" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C44" s="137" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="D44" s="137" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="E44" s="137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="137" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C45" s="137" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="364" x14ac:dyDescent="0.3">
       <c r="A46" s="137" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C46" s="137" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="D46" s="137" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="E46" s="137" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E48">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:E46">
+    <sortCondition ref="A43"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4253,10 +4260,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4271,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4300,11 +4307,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4312,28 +4319,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4344,16 +4351,16 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>5</v>
@@ -4367,25 +4374,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -4393,25 +4400,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
@@ -4420,10 +4427,10 @@
       </c>
       <c r="D8" s="102"/>
       <c r="G8" s="101" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -4435,22 +4442,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>5</v>
@@ -4464,25 +4471,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,16 +4500,16 @@
         <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>5</v>
@@ -4516,25 +4523,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4542,25 +4549,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F14" s="119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4568,10 +4575,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4580,22 +4587,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>5</v>
@@ -4612,22 +4619,22 @@
         <v>21</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="54" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -4638,16 +4645,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>5</v>
@@ -4661,25 +4668,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="68" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="104" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4689,10 +4696,10 @@
       <c r="D21" s="105"/>
       <c r="E21" s="106"/>
       <c r="G21" s="104" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I21" s="107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4705,22 +4712,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>5</v>
@@ -4734,25 +4741,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="F24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4760,25 +4767,25 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4786,25 +4793,25 @@
         <v>4</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="78" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4812,25 +4819,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4839,10 +4846,10 @@
       </c>
       <c r="D28" s="82"/>
       <c r="G28" s="63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I28" s="83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
@@ -4854,28 +4861,28 @@
         <v>5</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>103</v>
-      </c>
       <c r="F30" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4883,25 +4890,25 @@
         <v>5</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="F31" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4909,25 +4916,25 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4936,25 +4943,25 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4966,22 +4973,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4989,28 +4996,28 @@
         <v>5</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="89" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="108" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5020,10 +5027,10 @@
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
       <c r="G36" s="108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I36" s="111" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5036,28 +5043,28 @@
         <v>6</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5068,16 +5075,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>5</v>
@@ -5091,25 +5098,25 @@
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5117,25 +5124,25 @@
         <v>6</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="F41" s="116" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5144,10 +5151,10 @@
       </c>
       <c r="D42" s="93"/>
       <c r="G42" s="63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5159,28 +5166,28 @@
         <v>7</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C44" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5188,25 +5195,25 @@
         <v>7</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5217,19 +5224,19 @@
         <v>19</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>20</v>
@@ -5240,25 +5247,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5269,22 +5276,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5292,25 +5299,25 @@
         <v>7</v>
       </c>
       <c r="C49" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="100" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="100" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.2">
@@ -5319,10 +5326,10 @@
       </c>
       <c r="D50" s="112"/>
       <c r="G50" s="108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I50" s="113" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -5334,28 +5341,28 @@
         <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="30" t="s">
+      <c r="F52" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I52" s="45" t="s">
         <v>60</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5366,19 +5373,19 @@
         <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>12</v>
@@ -5389,25 +5396,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="E54" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="F54" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5416,25 +5423,25 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="39" t="s">
+      <c r="F55" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" s="43" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5443,25 +5450,25 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>86</v>
-      </c>
       <c r="G56" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5469,25 +5476,25 @@
         <v>8</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>71</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.2">
@@ -5495,22 +5502,22 @@
         <v>8</v>
       </c>
       <c r="C58" s="114" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="115" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E58" s="114" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F58" s="114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" s="114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" s="114" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5518,25 +5525,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F59" s="117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,10 +5551,10 @@
         <v>8</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5555,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5595,10 +5602,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C1" s="121" t="s">
         <v>7</v>
@@ -5613,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H1" s="121" t="s">
         <v>2</v>
@@ -5622,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="121" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5630,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="123" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5641,22 +5648,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E4" s="121" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="121" t="s">
         <v>5</v>
@@ -5670,25 +5677,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5696,25 +5703,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="121" t="s">
+      <c r="F6" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="125" t="s">
         <v>107</v>
-      </c>
-      <c r="F6" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5722,25 +5729,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5748,25 +5755,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="121" t="s">
+      <c r="F8" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="125" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="125" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5775,10 +5782,10 @@
       </c>
       <c r="D9" s="124"/>
       <c r="G9" s="121" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5790,25 +5797,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="123" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="126" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,25 +5823,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5842,25 +5849,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>86</v>
-      </c>
       <c r="G13" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I13" s="123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5868,25 +5875,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I14" s="121" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5894,25 +5901,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I15" s="123" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5920,25 +5927,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="123" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5949,19 +5956,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="125" t="s">
         <v>12</v>
@@ -5976,10 +5983,10 @@
       <c r="E18" s="132"/>
       <c r="F18" s="126"/>
       <c r="G18" s="126" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I18" s="132" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,22 +6002,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" s="121" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="121" t="s">
         <v>5</v>
@@ -6024,25 +6031,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>119</v>
-      </c>
       <c r="F21" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6050,25 +6057,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="121" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E22" s="121" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,25 +6083,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I23" s="127" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,25 +6109,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6128,10 +6135,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I25" s="127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6143,28 +6150,28 @@
         <v>4</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D27" s="134" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E27" s="133" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F27" s="133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="134" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6172,25 +6179,25 @@
         <v>4</v>
       </c>
       <c r="C28" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="121" t="s">
-        <v>103</v>
-      </c>
       <c r="F28" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6198,25 +6205,25 @@
         <v>4</v>
       </c>
       <c r="C29" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" s="121" t="s">
-        <v>63</v>
-      </c>
       <c r="F29" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6224,28 +6231,28 @@
         <v>4</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E30" s="128" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="127" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,22 +6263,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6279,25 +6286,25 @@
         <v>4</v>
       </c>
       <c r="C32" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E32" s="121" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I32" s="123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6306,10 +6313,10 @@
       </c>
       <c r="D33" s="124"/>
       <c r="G33" s="121" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I33" s="125" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6323,28 +6330,28 @@
         <v>5</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="124" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E36" s="126" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F36" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="123" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6355,16 +6362,16 @@
         <v>24</v>
       </c>
       <c r="D37" s="124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="121" t="s">
         <v>5</v>
@@ -6378,25 +6385,25 @@
         <v>5</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G38" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="121" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6404,25 +6411,25 @@
         <v>5</v>
       </c>
       <c r="C39" s="121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E39" s="121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I39" s="125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,25 +6437,25 @@
         <v>5</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D40" s="132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E40" s="132" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F40" s="126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H40" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" s="132" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6456,10 +6463,10 @@
         <v>5</v>
       </c>
       <c r="G41" s="121" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I41" s="129" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6470,22 +6477,22 @@
         <v>6</v>
       </c>
       <c r="B43" s="121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" s="121" t="s">
         <v>5</v>
@@ -6499,25 +6506,25 @@
         <v>6</v>
       </c>
       <c r="C44" s="121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E44" s="121" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H44" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6525,25 +6532,25 @@
         <v>6</v>
       </c>
       <c r="C45" s="121" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D45" s="121" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E45" s="121" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F45" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="121" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -6551,25 +6558,25 @@
         <v>6</v>
       </c>
       <c r="C46" s="121" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D46" s="121" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E46" s="121" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F46" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="121" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="125" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,16 +6587,16 @@
         <v>31</v>
       </c>
       <c r="D47" s="122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E47" s="121" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H47" s="121" t="s">
         <v>5</v>
@@ -6603,25 +6610,25 @@
         <v>6</v>
       </c>
       <c r="C48" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="126" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="121" t="s">
+      <c r="F48" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="125" t="s">
         <v>67</v>
-      </c>
-      <c r="F48" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48" s="125" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -6630,10 +6637,10 @@
       </c>
       <c r="D49" s="121"/>
       <c r="G49" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I49" s="121" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,22 +6652,22 @@
         <v>7</v>
       </c>
       <c r="B51" s="121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C51" s="121" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="122" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E51" s="121" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H51" s="121" t="s">
         <v>5</v>
@@ -6677,22 +6684,22 @@
         <v>21</v>
       </c>
       <c r="D52" s="122" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E52" s="121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H52" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6703,16 +6710,16 @@
         <v>27</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E53" s="121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53" s="121" t="s">
         <v>5</v>
@@ -6726,25 +6733,25 @@
         <v>7</v>
       </c>
       <c r="C54" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E54" s="130" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F54" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H54" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="125" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,25 +6759,25 @@
         <v>7</v>
       </c>
       <c r="C55" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="121" t="s">
+      <c r="F55" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" s="123" t="s">
         <v>60</v>
-      </c>
-      <c r="F55" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="123" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6779,10 +6786,10 @@
       </c>
       <c r="E56" s="130"/>
       <c r="G56" s="121" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I56" s="125" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6794,25 +6801,25 @@
         <v>8</v>
       </c>
       <c r="C58" s="121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E58" s="121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G58" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -6823,19 +6830,19 @@
         <v>19</v>
       </c>
       <c r="D59" s="122" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E59" s="121" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H59" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I59" s="125" t="s">
         <v>20</v>
@@ -6846,19 +6853,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D60" s="131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G60" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I60" s="131" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6866,25 +6873,25 @@
         <v>8</v>
       </c>
       <c r="C61" s="121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="124" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E61" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="125" t="s">
         <v>95</v>
-      </c>
-      <c r="F61" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="I61" s="125" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6892,25 +6899,25 @@
         <v>8</v>
       </c>
       <c r="C62" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="I62" s="125" t="s">
         <v>129</v>
-      </c>
-      <c r="D62" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="E62" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="125" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -6921,22 +6928,22 @@
         <v>13</v>
       </c>
       <c r="D63" s="122" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E63" s="121" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H63" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I63" s="123" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6945,10 +6952,10 @@
       </c>
       <c r="E64" s="130"/>
       <c r="G64" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I64" s="123" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6958,7 +6965,7 @@
       <c r="D65" s="126"/>
       <c r="E65" s="128"/>
       <c r="I65" s="123" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="22" x14ac:dyDescent="0.25">

--- a/programme/Maths Psych_V2.xlsx
+++ b/programme/Maths Psych_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="50220" windowHeight="26660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="40180" windowHeight="24400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstracts" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="425">
   <si>
     <t>Title</t>
   </si>
@@ -1224,9 +1224,6 @@
     <t>Chi-Fai Lo, Kwok-Kwan Wong, &amp; Ho-Yan Ip</t>
   </si>
   <si>
-    <t>Anthea G. Blunden, Dylan Hammond, Piers D. L. Howe, &amp; Daniel R. Little</t>
-  </si>
-  <si>
     <t>Matthew Kaesler [1], John Dunn [2], &amp; Carolyn Semmler [1]</t>
   </si>
   <si>
@@ -1828,9 +1825,6 @@
     <t>**THE ROLE OF WORKING MEMORY IN FREE RECALL: THE EFFECT OF PRELOAD AT RETRIEVAL**</t>
   </si>
   <si>
-    <t>**CHARACTERISING THE ARCHITECTURE AND INTEGRATION RULE OF CHANGE DETECTION DECISIONS**</t>
-  </si>
-  <si>
     <t>**LIE-ALGEBRAIC APPROACH FOR THE LEAKY COMPETING ACCUMULATOR MODEL OF DECISION MAKING**</t>
   </si>
   <si>
@@ -1923,13 +1917,6 @@
 </t>
   </si>
   <si>
-    <t>Risky choice involves selection between two or more options each of which is a set of n ordered pairs, , where xi is a (positive, negative, or zero) payoff and pi is its probability of occurrence, with  .  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of simple scalability and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, A and B, with the probability of choosing A over B,  . We presented groups of participants with 30 variable gambles (A) each paired with one of four fixed gambles (B) and tested the prediction of fixed utility models that   has the same order over A for all B using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.
-References 
-Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. Psychological Review, 100, 432–459.
-Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. Journal of Mathematical Psychology, 70, 1-11
-Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. Journal of Risk and Uncertainty, 5(4), 297–323.</t>
-  </si>
-  <si>
     <t>Mullard</t>
   </si>
   <si>
@@ -1940,13 +1927,41 @@
   </si>
   <si>
     <t xml:space="preserve">Ben-Haim </t>
+  </si>
+  <si>
+    <t>Anthea G. Blunden, Dylan Hammond, Piers D. L. Howe &amp; Daniel R. Little</t>
+  </si>
+  <si>
+    <t>**CHARACTERISING THE ARCHITECTURE AND INTEGRATION OF CHANGE DETECTION DECISIONS**</t>
+  </si>
+  <si>
+    <t>Risky choice involves selection between two or more options each of which is a set of *n* ordered pairs, (*p&lt;sub&gt;i,x&lt;sub&gt;i*) , where *xi* is a (positive, negative, or zero) payoff and *pi* is its probability of occurrence, with  .  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of *simple scalability* and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, *A* and *B*, with the probability of choosing *A* over *B*, *P(A&gt;B)* . We presented groups of participants with 30 *variable* gambles (*A*) each paired with one of four *fixed* gambles (*B*) and tested the prediction of fixed utility models that *P(A&gt;B)* has the same order over *A* for all *B* using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.
+*References* 
+Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. *Psychological Review, 100*, 432–459.
+Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. *Journal of Mathematical Psychology, 70*, 1-11
+Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. *Journal of Risk and Uncertainty, 5(4)*, 297–323.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Retrieving samples from memory is a critical tool for decision-making. We introduce incentive compatible methods to investigate the extent to which memory predicts evaluation. We present participants with a sequence of monetary values and ask them to complete both a free-recall task and a willingness to-pay (WTP) task. In order to assess whether there is indeed a trade-off between memory-based and moment-by-moment strategies in evaluation, we varied participants’ expectation about the upcoming task (memory or evaluation). Using Bayesian mixed effects models, we predict WTP from both the items that were recalled and those that were presented and discuss how the position of a value in a sequence determines evaluation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353535"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Our findings indicate that when participants complete both memory and evaluation tasks there is a cost to memory accuracy, but memory is still an effective strategy for performing evaluation. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2101,6 +2116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF353535"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2496,7 +2518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2786,6 +2808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -3430,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3458,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3469,10 +3494,10 @@
         <v>83</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2" s="137" t="s">
         <v>87</v>
@@ -3480,16 +3505,16 @@
     </row>
     <row r="3" spans="1:6" ht="182" x14ac:dyDescent="0.3">
       <c r="A3" s="137" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B3" s="137" t="s">
         <v>276</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E3" s="137" t="s">
         <v>26</v>
@@ -3498,16 +3523,16 @@
     </row>
     <row r="4" spans="1:6" ht="312" x14ac:dyDescent="0.3">
       <c r="A4" s="137" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="137" t="s">
-        <v>288</v>
-      </c>
       <c r="C4" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E4" s="137" t="s">
         <v>90</v>
@@ -3518,16 +3543,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.3">
@@ -3535,16 +3560,16 @@
         <v>96</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3555,10 +3580,10 @@
         <v>98</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" s="137" t="s">
         <v>100</v>
@@ -3572,10 +3597,10 @@
         <v>234</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="137" t="s">
         <v>236</v>
@@ -3586,13 +3611,13 @@
         <v>121</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E9" s="137" t="s">
         <v>123</v>
@@ -3603,13 +3628,13 @@
         <v>111</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E10" s="137" t="s">
         <v>113</v>
@@ -3623,10 +3648,10 @@
         <v>142</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" s="137" t="s">
         <v>144</v>
@@ -3634,19 +3659,19 @@
     </row>
     <row r="12" spans="1:6" ht="364" x14ac:dyDescent="0.3">
       <c r="A12" s="137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" s="137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3654,16 +3679,16 @@
         <v>78</v>
       </c>
       <c r="B13" s="137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="390" x14ac:dyDescent="0.3">
@@ -3671,13 +3696,13 @@
         <v>101</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="137" t="s">
         <v>103</v>
@@ -3688,16 +3713,16 @@
         <v>164</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" s="137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3705,13 +3730,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="137" t="s">
         <v>18</v>
@@ -3722,16 +3747,16 @@
         <v>58</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E17" s="137" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -3739,13 +3764,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>29</v>
@@ -3756,13 +3781,13 @@
         <v>34</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E19" s="137" t="s">
         <v>36</v>
@@ -3773,13 +3798,13 @@
         <v>81</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E20" s="137" t="s">
         <v>82</v>
@@ -3790,16 +3815,16 @@
         <v>120</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21" s="137" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -3807,13 +3832,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" s="137" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" s="137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E22" s="137" t="s">
         <v>23</v>
@@ -3827,10 +3852,10 @@
         <v>285</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E23" s="137" t="s">
         <v>231</v>
@@ -3838,19 +3863,19 @@
     </row>
     <row r="24" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B24" s="137" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="137" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E24" s="137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="338" x14ac:dyDescent="0.3">
@@ -3861,10 +3886,10 @@
         <v>287</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" s="137" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E25" s="137" t="s">
         <v>126</v>
@@ -3878,10 +3903,10 @@
         <v>286</v>
       </c>
       <c r="C26" s="137" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E26" s="137" t="s">
         <v>72</v>
@@ -3895,24 +3920,27 @@
         <v>284</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A28" s="137" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E28" s="137" t="s">
         <v>229</v>
@@ -3926,10 +3954,10 @@
         <v>283</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E29" s="137" t="s">
         <v>116</v>
@@ -3943,10 +3971,10 @@
         <v>54</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D30" s="137" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E30" s="137" t="s">
         <v>56</v>
@@ -3960,10 +3988,10 @@
         <v>281</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E31" s="137" t="s">
         <v>16</v>
@@ -3977,10 +4005,10 @@
         <v>280</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E32" s="137" t="s">
         <v>30</v>
@@ -3991,30 +4019,30 @@
         <v>38</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" s="137" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E33" s="137" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A34" s="137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E34" s="137" t="s">
         <v>152</v>
@@ -4028,10 +4056,10 @@
         <v>279</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E35" s="137" t="s">
         <v>68</v>
@@ -4045,10 +4073,10 @@
         <v>278</v>
       </c>
       <c r="C36" s="137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E36" s="137" t="s">
         <v>48</v>
@@ -4062,13 +4090,13 @@
         <v>277</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E37" s="137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -4079,10 +4107,10 @@
         <v>275</v>
       </c>
       <c r="C38" s="137" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E38" s="137" t="s">
         <v>92</v>
@@ -4096,10 +4124,10 @@
         <v>274</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E39" s="137" t="s">
         <v>77</v>
@@ -4113,10 +4141,10 @@
         <v>273</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E40" s="137" t="s">
         <v>110</v>
@@ -4130,10 +4158,10 @@
         <v>272</v>
       </c>
       <c r="C41" s="137" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" s="137" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E41" s="137" t="s">
         <v>108</v>
@@ -4147,10 +4175,10 @@
         <v>271</v>
       </c>
       <c r="C42" s="137" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D42" s="137" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E42" s="137" t="s">
         <v>145</v>
@@ -4158,19 +4186,19 @@
     </row>
     <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" s="137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D43" s="137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E43" s="137" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="338" x14ac:dyDescent="0.3">
@@ -4181,10 +4209,10 @@
         <v>270</v>
       </c>
       <c r="C44" s="137" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44" s="137" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E44" s="137" t="s">
         <v>63</v>
@@ -4198,10 +4226,10 @@
         <v>269</v>
       </c>
       <c r="C45" s="137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E45" s="137" t="s">
         <v>130</v>
@@ -4215,10 +4243,10 @@
         <v>268</v>
       </c>
       <c r="C46" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D46" s="137" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E46" s="137" t="s">
         <v>14</v>
@@ -5823,13 +5851,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F12" s="133" t="s">
         <v>75</v>
@@ -5841,7 +5869,7 @@
         <v>154</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5890,7 +5918,7 @@
         <v>85</v>
       </c>
       <c r="H14" s="121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I14" s="121" t="s">
         <v>173</v>
@@ -6086,7 +6114,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" s="121" t="s">
         <v>93</v>
@@ -6153,13 +6181,13 @@
         <v>171</v>
       </c>
       <c r="C27" s="121" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="134" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="134" t="s">
-        <v>318</v>
-      </c>
       <c r="E27" s="133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" s="133" t="s">
         <v>75</v>
@@ -6171,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="134" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6240,7 +6268,7 @@
         <v>245</v>
       </c>
       <c r="E30" s="128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" s="121" t="s">
         <v>75</v>
@@ -6414,7 +6442,7 @@
         <v>53</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E39" s="121" t="s">
         <v>55</v>
@@ -6739,7 +6767,7 @@
         <v>241</v>
       </c>
       <c r="E54" s="130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F54" s="121" t="s">
         <v>75</v>
@@ -6804,7 +6832,7 @@
         <v>111</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E58" s="121" t="s">
         <v>114</v>
@@ -6902,7 +6930,7 @@
         <v>127</v>
       </c>
       <c r="D62" s="122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E62" s="121" t="s">
         <v>128</v>

--- a/programme/Maths Psych_V2.xlsx
+++ b/programme/Maths Psych_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amason/Documents/AMPC18/programme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonfarrell/Simon/Admin/Conferences/AMPC18/website/programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="40180" windowHeight="24400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="1120" windowWidth="40240" windowHeight="25720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstracts" sheetId="5" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <t>Zhou</t>
   </si>
   <si>
-    <t xml:space="preserve">Source memory is memory for the context in which items were previously encountered. Past research has largely aimed to establish whether source memory retrieval is better characterised as a threshold or continuous process in two-alternative forced choice tasks, using ROC functions. Recently, Harlow and Donaldson (2013) introduced a continuous report paradigm to study performance in source memory tasks, and found evidence of a retrieval threshold underlying response accuracy. However, this account does not consider response time (RT) distributions. To investigate the role of decision-making in source memory retrieval, this study used the Smith (2016) circular diffusion model to introduce diffusion analogues of the threshold and continuous models of source memory retrieval in a replication of the Harlow and Donaldson (2013) task. Model selection done using the BIC found support for a circular diffusion model where memory discretely fails, as both RT and response accuracy data suggested that there were two components in performance. 
-</t>
-  </si>
-  <si>
     <t>Oberauer</t>
   </si>
   <si>
@@ -293,22 +289,12 @@
     <t>University of Queensland</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst much is known about the effects of rewards and punishments on motivation and behavior, far less is known about their effects on the underlying information processing structures. A view held by many is that the human information processing system has a limited capacity. The system must therefore manage its resources efficiently, taking into account the supply of and demand for resources when deploying them to various tasks. According to this perspective, reward and punishment might increase the rate of information processing, because it makes the allocation of resources to a task a more worthwhile investment. An alternative perspective is that the potential for reward or punishment may slow the processing of information, because they increase the need for resources to be deployed toward off-task activities such as self-monitoring. 
-We examined these predictions using a random dot motion detection task in which participants viewed clouds of moving dots and had to determine whether the dots were moving mostly left or mostly right. For each block, the participants were given the goal of being more accurate and faster than the average participant in a pilot study. In the reward condition, participants gained money for achieving the goal. In the punishment condition, participants lost money for failing the goal. The rate of information processing was measured by estimating the drift rate parameter using the LBA model within a hierarchical Bayesian framework.
-When participants were given an opportunity for reward, the average rate of information processing did not change from baseline. However, the amount of information required to make a decision (i.e., response threshold) increased. When participants were under threat of punishment, the average rate of information processing decreased, and the amount of information required to make a decision also decreased. These findings demonstrate the need to consider the context when attempting to understand how information processing will unfold.
-</t>
-  </si>
-  <si>
     <t>Human information processing in the face of reward versus punishment</t>
   </si>
   <si>
     <t>Little</t>
   </si>
   <si>
-    <t xml:space="preserve">We propose an adaptation of the logical rule-based models (Fific, Little &amp; Nosofsky, 2010) in order to characterise decision making based on information held in visual short term memory. Specifically, we seek to diagnose decision making processes in a one-shot multi-element change detection task, as either serial, parallel, or coactive in nature. We additionally seek to characterise whether the integration rule for each change decision is based on the maximum evidence strength or the sum of strengths across elements. The logical rule models assume that each element is represented as a Gaussian distribution of perceptual effects. To model changes, we assume that the strength of the change is represented as a folded-normal distribution.  We factorially manipulate the magnitude of change for a given element and whether a change decision requires an OR or an AND decision rule. This approach is novel in that it provides a way to unify signal detection models of change detection (Maximum Difference and Summed Difference models) with models of information process.
- </t>
-  </si>
-  <si>
     <t>Stephens</t>
   </si>
   <si>
@@ -366,32 +352,18 @@
     <t>Thompson</t>
   </si>
   <si>
-    <t xml:space="preserve">What forensic experts should say, or should be allowed to say, about the results of forensic comparisons has been a contentious issue in the legal and forensic science communities. It is common practice for forensic pattern identification experts, such as in fingerprints and ballistics, to testify that two impressions originate from the same source to the exclusion of all others in the absence of statistical information. Experts have even claimed 100% accuracy, or that the rates of error are so improbable that they need not be considered. An alternative framework is necessary. When, if ever, should experts claim to have determined that two items share a common source, and should they present error rates, or the probability of coincidental matches?
-Here we explore options for the statistical representation and communication of forensic evidence in court. We argue that we have reached a turning point, where Australian state and federal police jurisdictions are seeking alternative frameworks for presenting evidence in court, but where well-considered proposals are scarce. We propose an avenue by which the mathematical psychology community might lend their own expertise to the problem.
-</t>
-  </si>
-  <si>
     <t>Dennis</t>
   </si>
   <si>
     <t>Predicting memory for WHEN</t>
   </si>
   <si>
-    <t xml:space="preserve">We present a model that predicts when people will believe events from their lives occurred on a person by person and stimulus by stimulus basis. Participants wore a smartphone in a pouch around their necks for two weeks. The smartphone collected timestamps, GPS, accelerometry, audio segments and images. These data sources were augmented with weather conditions, temperature, moon phase and tags derived from the audio using a machine learning model. A week later they were shown a selection of images and were required to indicate on which day each was taken. A conditional logit model predicted leave one person out judgements, leave one day out judgements and leave one observation out judgements. We highlight the advantages of using cross validation over other methods of model selection.
-</t>
-  </si>
-  <si>
     <t>1University of Melbourne, 2University of Newcastle, 3Vanderbilt University, 4NIH Research Laboratories</t>
   </si>
   <si>
     <t>Extensional and intensional reasoning: A Bayesian perspective on the conjunction fallacy</t>
   </si>
   <si>
-    <t>The conjunction fallacy is one of the most striking findings in the heuristics and biases literature, in which people rate a pair of propositions (e.g. Linda is a bank teller and a feminist) as more probable than one of the constituents (e.g. Linda is a bank teller). This is especially likely to occur when the description of Linda is more representative of one category (feminist) than the other. An extensive literature on the conjunction fallacy demonstrates that the effect is robust, but also sensitive to linguistic and pragmatic factors. 
-In this talk we present a Bayesian perspective on the problem. Extending earlier work on the pragmatics of conjunction effects, we argue that there is a degree of ambiguity to the inference problem that people need to solve. In an extensional reasoning scenario the problem is assumed to be to infer the properties that Linda has (in the world) and it cannot be the case that Linda is a feminist bank teller without also being a bank teller. In an intensional reasoning scenario the goal is to identify the meaning of the ideas being described or communicated. Intensional reasoning allows a conjunction to be more likely than a constituent: if my intent is to communicate “red circle” to you, and you infer “circle”, a communication failure has occurred. In an effective communicative system, it is necessary to be able to specify (and to infer) the smaller of two nested sets, and conjunction 'fallacies’ are necessarily permitted. Consequently, while probabilistic reasoning models based on extensional logic do not produce conjunction fallacies, it is entirely possible for an intensional reasoning system to do so. 
-Motivated by this theoretical perspective we present a series of experiments showing that people's behaviour in these tasks is highly sensitive to the distinction between extensional and intensional semantics. When a reasoning problem is framed in a way that emphasises the communicative and social aspect to the situation, strong conjunction effects appear. When the task is reframed to emphasise the extensional and non-social aspects, the fallacy is either attenuated or absent. This sensitivity occurs across many different social categories (e.g. feminist bank tellers) as well as reasoning about purely physical events (dice rolls). We argue that this sensitivity to framing occurs because people switch between solving different inference problems, both of which are sensible but are not equivalent to each other.</t>
-  </si>
-  <si>
     <t>Navarro</t>
   </si>
   <si>
@@ -408,12 +380,6 @@
   </si>
   <si>
     <t>Near neighbour judgements as an efficient way to estimate semantic similarity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A popular way to estimate how words are similar involves asking participants to assign a magnitude judgement of similarity for a pair of words using a rating scale. This method has various limitations associated with the use of rating scales and lack of context when only two items are compared. Moreover, from a practical point of view, the procedure becomes prohibitively expensive for a large number of items. For example, for 1,000 items, obtaining one observation per pair would require nearly half a million judgements.
-In two studies, we explore an alternative procedure in which  participants either generate or rank a small number of near neighbours to a natural language concept. To evaluate the validity of this new task, we used pair-wise similarities collected for 15 basic level categories such as “birds” or “tools”. For each of the categories, we construct a sparse near neighbour graph and show that a mechanism of spreading activation based on random walks (see De Deyne, Navarro, Perfors &amp; Storms, 2016) can be used to accurately predict pair-wise similarity judgements using a limited amount of information.
-While these results suggest excellent external validity at a fraction of the cost, we also discuss some theoretical implications about the number of near neighbours and fundamental differences between similarity-based and feature-based inference in natural language concepts.
-</t>
   </si>
   <si>
     <t>Lo</t>
@@ -608,11 +574,6 @@
     <t>Most psychological theories of cognition propose that when an individual encounters a task, they rely on a mental representation of the stimuli used in that task. Standard approaches for measuring the mental representation of such stimuli are explicit and subjective. For example, observers may be asked to rate what they believe to be the similarity between pairs of items. One of the major issues with this approach is that one must assume that the stimuli have the same mental representation in the similarity rating task as in any other task. Our approach is to subvert this problem, by directly extracting the mental representation of stimuli from the cognitive task of interest. Specifically, we use the Generalized Context Model to infer the mental representation of a set of 20 colors from responses in a visual working memory task. Along the way, we also use the model to infer the strength of memories for items on the current and previous trial, thus investigating the role of recency, primacy, and proactive interference in visual working memory. Finally, we also use the model to infer the mental representation of 20 letter stimuli in a verbal working memory task.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Throughout the last few decades, a heated debate has been going on between frequentists and Bayesians. There are substantial theoretical and philosophical differences between both methods. Recently, a number of papers have come out claiming that for pragmatic purposes, both philosophies may not be all that different. In this presentation, I will discuss work that examines numerical correspondence between frequentist confidence intervals and Bayesian credible intervals based on non-informative priors. I show that numerically the differences between confidence intervals and credible intervals are very often negligible. I'll conclude with my take on the consequences of this for the frequentist-Bayesian debate from a practical viewpoint.
-</t>
-  </si>
-  <si>
     <t>Credible Confidence: A pragmatic view on the frequentist vs Bayesian debate</t>
   </si>
   <si>
@@ -629,10 +590,6 @@
   </si>
   <si>
     <t>Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I present a model for decision making for stimuli and responses in continuous space.  The model is applied to three numeracy tasks: in one, a two-digit number is presented and the participant has to move their finger to a matching location on a number line, in the second, an array of dots is presented and the participant is to move their finger to a matching location on an arc, and in the third, an array of dots is presented and the participant has to speak the number.  The model is composed of diffusion processes on lines and planes in which evidence from a stimulus (distributed across space) drives the noisy decision process which accumulates evidence over time to a criterion at which point a response is initiated.  Noise is represented as a continuous Gaussian process. The model produces fits for the full distributions of response times and choice probabilities across the stimulus space and
-</t>
   </si>
   <si>
     <t>Campitelli</t>
@@ -1066,10 +1023,6 @@
     <t>Syracuse University</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Output interference is the finding that performance declines with test trial.  In cued recall tasks, participants are presented with a cue word and tasked to output the target word studied alongside.    Participants may choose to respond or not, and a response if given may be correct or incorrect.  We aim to understand the empirical pattern of output interference in cued recall and the underlying theoretical mechanisms.  We first analyzed published cued recall data and found fewer correct and incorrect responses across test trial.  Next, we tested the contribution of cue and target memories on output interference through a release from output interference paradigm: one member of each pair was an exemplar from one of two categories, and that member was either the cue word or target word (post-cued).  The critical comparison was when one category was tested in a blocked fashion and the blocking was either by cue category or by target category. We found that release from output interference only occurred when the test probe included information about the blocked words.  Specifically, release occurred for blocked cues; release occurred for blocked targets only when the test probe included the target category, in effect treating the target category like an extra cue. Together these data suggest that interference is driven both by learning the test probe and by imperfect filtering of already provided responses.  </t>
-  </si>
-  <si>
     <t>**Don van Ravenzwaai**, Casper Albers, Henk Kiers</t>
   </si>
   <si>
@@ -1176,10 +1129,6 @@
   </si>
   <si>
     <t>Christina Van Heer [1], Robert Hester [1], David K. Sewell [2], &amp; Philip L. Smith [1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew B. Thompson [1], Rachel A. Searston [2], Gianni Ribeiro [3], &amp; Jason M. Tangen [3]
-</t>
   </si>
   <si>
     <t>Luke Strickland [1], David Elliott [1], Michael David Wilson [2], Shayne Loft [2], &amp; Andrew Heathcote [1]</t>
@@ -1593,11 +1542,6 @@
   </si>
   <si>
     <t>*University of Western Australia*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-*The Chinese University of Hong Kong*
-</t>
   </si>
   <si>
     <t>*University of Basel*</t>
@@ -1858,10 +1802,6 @@
     <t>**HOW DO PEOPLE THINK ABOUT THE PROBABILITY OF HUMAN EXTINCTION?**</t>
   </si>
   <si>
-    <t xml:space="preserve">**MODELLING SPEEDED MULTIELEMENT DECISION MAKING AS DIFFUSION IN A HYPERSPHERE**
-</t>
-  </si>
-  <si>
     <t>**ASSESSING ROBUSTNESS OF STATISTICAL MODELS: INFO-GAP THEORY**</t>
   </si>
   <si>
@@ -1871,10 +1811,6 @@
     <t>**MODELLING PROSPECTIVE MEMORY IN SIMULATED MARITIME SURVEILLANCE: COGNITIVE CONTROL AND COMPETITION FOR CAPACITY**</t>
   </si>
   <si>
-    <t xml:space="preserve">**ALTERNATIVE STATISTICAL FRAMEWORKS FOR COMMUNICATING THE STRENGTH OF FORENSIC EVIDENCE IN COURT**
-</t>
-  </si>
-  <si>
     <t>**THE ROLE OF PREDICTION ERROR AND CONFIDENCE IN SEQUENTIAL DECISIONS **</t>
   </si>
   <si>
@@ -1896,27 +1832,9 @@
     <t>**USING RESPONSE TIMES TO DISTINGUISH BETWEEN ATTRIBUTE-WISE AND ALTERNATE-WISE MODELS OF INTER-TEMPORAL CHOICE.**</t>
   </si>
   <si>
-    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as &amp;#39;Black Swan&amp;#39; scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10&amp;#37; to 90 &amp;#37; and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5 &amp;#37;) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of &amp;#39;black swan&amp;#39; options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the &amp;#39;decision template&amp;#39; for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.
-</t>
-  </si>
-  <si>
     <t>Amy Perfors &amp; Nicholas van Dam</t>
   </si>
   <si>
-    <t xml:space="preserve">Decisions from experience often differ from decisions based on described alternatives. This may stem from the fact that decisions from experience require that individuals learn about their choice alternatives by observing potential outcomes. We investigated the roles of attention and memory in the choice process by comparing two types of decision procedures: a) one where monetary value information is present during sampling, and b) one where values are revealed after sampling. In three experiments participants made a series of choices between pairs of risky gambles represented as urns containing different mixtures of blue and red balls. They began each trial by sampling balls from each urn. After observing a representative sample from each urn, participants chose which urn they would like to draw from for a consequential payment. In Experiment 3 some outcome samples were highlighted to increase visual and auditory salience.
-Results from all three experiments suggest that individuals place greater weight on rare events when outcome values are absent during sampling. This pattern is roughly consistent with the ‘description-experience gap’, in which decisions from description – which likewise involve separable representations of value and probability information – also indicate greater weighting of rare events relative to decisions from experience – which do not. In Experiment 3, we found that highlighting a rare reward increased its salience when outcome values were present, but not when they were absent, suggesting that highlighting rare outcome values during sampling led participants to place greater weight on these outcomes when making their choices. Parameter estimates from a hierarchical Bayesian prospect theory model supported the conclusion that value-absent choices involved greater overweighting of rare events. We discuss the implications of these findings on our understanding of the interplay between attention, memory, and choice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This project uses Bayesian Linear Ballistic Accumulator (LBA) models of decision-making to model the cognitive control mechanisms that aid prospective memory (PM) and ongoing task performance in a complex and dynamic air-traffic control (ATC) simulation. We aim to explain how operators balance competing demands from ongoing and PM tasks under different levels of time pressure, task load, and relative response importance.
-The ATC task involved classifying pairs of moving aircraft as either 'in-conflict' or 'not in-conflict'. On some trials aircraft also contained a PM target which required execution of an atypical PM response. These decisions require the integration of multiple information sources (e.g., relative distance, airspeed) on a dynamic display while balancing several competing task requirements (e.g., time pressure, PM demands, relative response importance). Moreover, decisions typically unfolded over relatively long time-scales (up to 10 seconds). Initial work suggests that models of simple choice such as the LBA can account for ongoing and PM task performance in these complex, long time-scale, less controlled applied settings. 
-Our modelling shows evidence of both proactive and reactive control mechanisms. In terms of proactive control, response thresholds were higher under PM load. This suggests individuals proactively raise ongoing task thresholds when holding PM intentions. This effect was larger when the importance of the PM task was emphasised and smaller when the importance of the ongoing task was emphasised. This suggests that holding PM intentions encourages operators to make deliberate strategic adjustments to how they perform their primary ongoing task, and that these adjustments vary systematically as a function of PM task importance. 
-</t>
-  </si>
-  <si>
     <t>Mullard</t>
   </si>
   <si>
@@ -1933,13 +1851,6 @@
   </si>
   <si>
     <t>**CHARACTERISING THE ARCHITECTURE AND INTEGRATION OF CHANGE DETECTION DECISIONS**</t>
-  </si>
-  <si>
-    <t>Risky choice involves selection between two or more options each of which is a set of *n* ordered pairs, (*p&lt;sub&gt;i,x&lt;sub&gt;i*) , where *xi* is a (positive, negative, or zero) payoff and *pi* is its probability of occurrence, with  .  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of *simple scalability* and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, *A* and *B*, with the probability of choosing *A* over *B*, *P(A&gt;B)* . We presented groups of participants with 30 *variable* gambles (*A*) each paired with one of four *fixed* gambles (*B*) and tested the prediction of fixed utility models that *P(A&gt;B)* has the same order over *A* for all *B* using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.
-*References* 
-Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. *Psychological Review, 100*, 432–459.
-Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. *Journal of Mathematical Psychology, 70*, 1-11
-Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. *Journal of Risk and Uncertainty, 5(4)*, 297–323.</t>
   </si>
   <si>
     <r>
@@ -1955,6 +1866,63 @@
       </rPr>
       <t xml:space="preserve">Our findings indicate that when participants complete both memory and evaluation tasks there is a cost to memory accuracy, but memory is still an effective strategy for performing evaluation. </t>
     </r>
+  </si>
+  <si>
+    <t>Matthew B. Thompson [1], Rachel A. Searston [2], Gianni Ribeiro [3], &amp; Jason M. Tangen [3]</t>
+  </si>
+  <si>
+    <t>*The Chinese University of Hong Kong*</t>
+  </si>
+  <si>
+    <t>Whilst much is known about the effects of rewards and punishments on motivation and behavior, far less is known about their effects on the underlying information processing structures. A view held by many is that the human information processing system has a limited capacity. The system must therefore manage its resources efficiently, taking into account the supply of and demand for resources when deploying them to various tasks. According to this perspective, reward and punishment might increase the rate of information processing, because it makes the allocation of resources to a task a more worthwhile investment. An alternative perspective is that the potential for reward or punishment may slow the processing of information, because they increase the need for resources to be deployed toward off-task activities such as self-monitoring.\\We examined these predictions using a random dot motion detection task in which participants viewed clouds of moving dots and had to determine whether the dots were moving mostly left or mostly right. For each block, the participants were given the goal of being more accurate and faster than the average participant in a pilot study. In the reward condition, participants gained money for achieving the goal. In the punishment condition, participants lost money for failing the goal. The rate of information processing was measured by estimating the drift rate parameter using the LBA model within a hierarchical Bayesian framework.\\When participants were given an opportunity for reward, the average rate of information processing did not change from baseline. However, the amount of information required to make a decision (i.e., response threshold) increased. When participants were under threat of punishment, the average rate of information processing decreased, and the amount of information required to make a decision also decreased. These findings demonstrate the need to consider the context when attempting to understand how information processing will unfold.</t>
+  </si>
+  <si>
+    <t>We propose an adaptation of the logical rule-based models (Fific, Little &amp; Nosofsky, 2010) in order to characterise decision making based on information held in visual short term memory. Specifically, we seek to diagnose decision making processes in a one-shot multi-element change detection task, as either serial, parallel, or coactive in nature. We additionally seek to characterise whether the integration rule for each change decision is based on the maximum evidence strength or the sum of strengths across elements. The logical rule models assume that each element is represented as a Gaussian distribution of perceptual effects. To model changes, we assume that the strength of the change is represented as a folded-normal distribution.  We factorially manipulate the magnitude of change for a given element and whether a change decision requires an OR or an AND decision rule. This approach is novel in that it provides a way to unify signal detection models of change detection (Maximum Difference and Summed Difference models) with models of information process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output interference is the finding that performance declines with test trial.  In cued recall tasks, participants are presented with a cue word and tasked to output the target word studied alongside.    Participants may choose to respond or not, and a response if given may be correct or incorrect.  We aim to understand the empirical pattern of output interference in cued recall and the underlying theoretical mechanisms.  We first analyzed published cued recall data and found fewer correct and incorrect responses across test trial.  Next, we tested the contribution of cue and target memories on output interference through a release from output interference paradigm: one member of each pair was an exemplar from one of two categories, and that member was either the cue word or target word (post-cued).  The critical comparison was when one category was tested in a blocked fashion and the blocking was either by cue category or by target category. We found that release from output interference only occurred when the test probe included information about the blocked words.  Specifically, release occurred for blocked cues; release occurred for blocked targets only when the test probe included the target category, in effect treating the target category like an extra cue. Together these data suggest that interference is driven both by learning the test probe and by imperfect filtering of already provided responses.  </t>
+  </si>
+  <si>
+    <t>The conjunction fallacy is one of the most striking findings in the heuristics and biases literature, in which people rate a pair of propositions (e.g. Linda is a bank teller and a feminist) as more probable than one of the constituents (e.g. Linda is a bank teller). This is especially likely to occur when the description of Linda is more representative of one category (feminist) than the other. An extensive literature on the conjunction fallacy demonstrates that the effect is robust, but also sensitive to linguistic and pragmatic factors.\\In this talk we present a Bayesian perspective on the problem. Extending earlier work on the pragmatics of conjunction effects, we argue that there is a degree of ambiguity to the inference problem that people need to solve. In an extensional reasoning scenario the problem is assumed to be to infer the properties that Linda has (in the world) and it cannot be the case that Linda is a feminist bank teller without also being a bank teller. In an intensional reasoning scenario the goal is to identify the meaning of the ideas being described or communicated. Intensional reasoning allows a conjunction to be more likely than a constituent: if my intent is to communicate “red circle” to you, and you infer “circle”, a communication failure has occurred. In an effective communicative system, it is necessary to be able to specify (and to infer) the smaller of two nested sets, and conjunction 'fallacies’ are necessarily permitted. Consequently, while probabilistic reasoning models based on extensional logic do not produce conjunction fallacies, it is entirely possible for an intensional reasoning system to do so.\\Motivated by this theoretical perspective we present a series of experiments showing that people's behaviour in these tasks is highly sensitive to the distinction between extensional and intensional semantics. When a reasoning problem is framed in a way that emphasises the communicative and social aspect to the situation, strong conjunction effects appear. When the task is reframed to emphasise the extensional and non-social aspects, the fallacy is either attenuated or absent. This sensitivity occurs across many different social categories (e.g. feminist bank tellers) as well as reasoning about purely physical events (dice rolls). We argue that this sensitivity to framing occurs because people switch between solving different inference problems, both of which are sensible but are not equivalent to each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project uses Bayesian Linear Ballistic Accumulator (LBA) models of decision-making to model the cognitive control mechanisms that aid prospective memory (PM) and ongoing task performance in a complex and dynamic air-traffic control (ATC) simulation. We aim to explain how operators balance competing demands from ongoing and PM tasks under different levels of time pressure, task load, and relative response importance.\\The ATC task involved classifying pairs of moving aircraft as either 'in-conflict' or 'not in-conflict'. On some trials aircraft also contained a PM target which required execution of an atypical PM response. These decisions require the integration of multiple information sources (e.g., relative distance, airspeed) on a dynamic display while balancing several competing task requirements (e.g., time pressure, PM demands, relative response importance). Moreover, decisions typically unfolded over relatively long time-scales (up to 10 seconds). Initial work suggests that models of simple choice such as the LBA can account for ongoing and PM task performance in these complex, long time-scale, less controlled applied settings.\\Our modelling shows evidence of both proactive and reactive control mechanisms. In terms of proactive control, response thresholds were higher under PM load. This suggests individuals proactively raise ongoing task thresholds when holding PM intentions. This effect was larger when the importance of the PM task was emphasised and smaller when the importance of the ongoing task was emphasised. This suggests that holding PM intentions encourages operators to make deliberate strategic adjustments to how they perform their primary ongoing task, and that these adjustments vary systematically as a function of PM task importance. </t>
+  </si>
+  <si>
+    <t>A popular way to estimate how words are similar involves asking participants to assign a magnitude judgement of similarity for a pair of words using a rating scale. This method has various limitations associated with the use of rating scales and lack of context when only two items are compared. Moreover, from a practical point of view, the procedure becomes prohibitively expensive for a large number of items. For example, for 1,000 items, obtaining one observation per pair would require nearly half a million judgements.\\In two studies, we explore an alternative procedure in which  participants either generate or rank a small number of near neighbours to a natural language concept. To evaluate the validity of this new task, we used pair-wise similarities collected for 15 basic level categories such as “birds” or “tools”. For each of the categories, we construct a sparse near neighbour graph and show that a mechanism of spreading activation based on random walks (see De Deyne, Navarro, Perfors &amp; Storms, 2016) can be used to accurately predict pair-wise similarity judgements using a limited amount of information.\\While these results suggest excellent external validity at a fraction of the cost, we also discuss some theoretical implications about the number of near neighbours and fundamental differences between similarity-based and feature-based inference in natural language concepts.</t>
+  </si>
+  <si>
+    <t>We present a model that predicts when people will believe events from their lives occurred on a person by person and stimulus by stimulus basis. Participants wore a smartphone in a pouch around their necks for two weeks. The smartphone collected timestamps, GPS, accelerometry, audio segments and images. These data sources were augmented with weather conditions, temperature, moon phase and tags derived from the audio using a machine learning model. A week later they were shown a selection of images and were required to indicate on which day each was taken. A conditional logit model predicted leave one person out judgements, leave one day out judgements and leave one observation out judgements. We highlight the advantages of using cross validation over other methods of model selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisions from experience often differ from decisions based on described alternatives. This may stem from the fact that decisions from experience require that individuals learn about their choice alternatives by observing potential outcomes. We investigated the roles of attention and memory in the choice process by comparing two types of decision procedures: a) one where monetary value information is present during sampling, and b) one where values are revealed after sampling. In three experiments participants made a series of choices between pairs of risky gambles represented as urns containing different mixtures of blue and red balls. They began each trial by sampling balls from each urn. After observing a representative sample from each urn, participants chose which urn they would like to draw from for a consequential payment. In Experiment 3 some outcome samples were highlighted to increase visual and auditory salience.\\Results from all three experiments suggest that individuals place greater weight on rare events when outcome values are absent during sampling. This pattern is roughly consistent with the ‘description-experience gap’, in which decisions from description – which likewise involve separable representations of value and probability information – also indicate greater weighting of rare events relative to decisions from experience – which do not. In Experiment 3, we found that highlighting a rare reward increased its salience when outcome values were present, but not when they were absent, suggesting that highlighting rare outcome values during sampling led participants to place greater weight on these outcomes when making their choices. Parameter estimates from a hierarchical Bayesian prospect theory model supported the conclusion that value-absent choices involved greater overweighting of rare events. We discuss the implications of these findings on our understanding of the interplay between attention, memory, and choice. </t>
+  </si>
+  <si>
+    <t>What forensic experts should say, or should be allowed to say, about the results of forensic comparisons has been a contentious issue in the legal and forensic science communities. It is common practice for forensic pattern identification experts, such as in fingerprints and ballistics, to testify that two impressions originate from the same source to the exclusion of all others in the absence of statistical information. Experts have even claimed 100% accuracy, or that the rates of error are so improbable that they need not be considered. An alternative framework is necessary. When, if ever, should experts claim to have determined that two items share a common source, and should they present error rates, or the probability of coincidental matches?\\Here we explore options for the statistical representation and communication of forensic evidence in court. We argue that we have reached a turning point, where Australian state and federal police jurisdictions are seeking alternative frameworks for presenting evidence in court, but where well-considered proposals are scarce. We propose an avenue by which the mathematical psychology community might lend their own expertise to the problem.</t>
+  </si>
+  <si>
+    <t>Throughout the last few decades, a heated debate has been going on between frequentists and Bayesians. There are substantial theoretical and philosophical differences between both methods. Recently, a number of papers have come out claiming that for pragmatic purposes, both philosophies may not be all that different. In this presentation, I will discuss work that examines numerical correspondence between frequentist confidence intervals and Bayesian credible intervals based on non-informative priors. I show that numerically the differences between confidence intervals and credible intervals are very often negligible. I'll conclude with my take on the consequences of this for the frequentist-Bayesian debate from a practical viewpoint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source memory is memory for the context in which items were previously encountered. Past research has largely aimed to establish whether source memory retrieval is better characterised as a threshold or continuous process in two-alternative forced choice tasks, using ROC functions. Recently, Harlow and Donaldson (2013) introduced a continuous report paradigm to study performance in source memory tasks, and found evidence of a retrieval threshold underlying response accuracy. However, this account does not consider response time (RT) distributions. To investigate the role of decision-making in source memory retrieval, this study used the Smith (2016) circular diffusion model to introduce diffusion analogues of the threshold and continuous models of source memory retrieval in a replication of the Harlow and Donaldson (2013) task. Model selection done using the BIC found support for a circular diffusion model where memory discretely fails, as both RT and response accuracy data suggested that there were two components in performance. </t>
+  </si>
+  <si>
+    <t>**MODELLING SPEEDED MULTIELEMENT DECISION MAKING AS DIFFUSION IN A HYPERSPHERE**</t>
+  </si>
+  <si>
+    <t>**ALTERNATIVE STATISTICAL FRAMEWORKS FOR COMMUNICATING THE STRENGTH OF FORENSIC EVIDENCE IN COURT**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the real world we are often faced with decisions in which the possible outcomes are extremely good or bad but the probability of that outcome is extremely low: winning the lottery or being struck by lightning are prototypical examples. Should you buy a lottery ticket? Should you climb to the top of a hill in a rainstorm? These kind of situations are known colloquially as 'Black Swan'; scenarios and create a particularly hard decision problem. However, despite decades of research, decision theory is relatively silent about how people do (or should) reason about them: most of the standard tasks involve probabilities ranging between 10% to 90% and the outcomes are a manageable fraction of existing savings. In this study we evaluate how people reason in situations when one or both options involve extremely low probabilities (from 0.1 to 1.5%) of very bad outcomes (losing all of the points accumulated so far). We explore how decisions change as a function of the number of points available and the number of 'black swan'; options available. In addition, we evaluate if people's approach varies based on whether they are making a single bet or planning a strategy of bets over multiple games. Finally, we present some exploratory research investigating whether individual differences in anxiety and tolerance of uncertainty predict differences in behaviour in black swan situations. </t>
+  </si>
+  <si>
+    <t>We generalize the circular 2D diffusion model of Smith (2016) to provide a new model of speeded decision-making in multielement visual displays. We model decision making in tasks with multielement displays as evidence accumulation by a vector-valued diffusion process in a hypersphere, whose radius represents the decision criterion for the task. We show that the methods used to derive response time and accuracy predictions for the 2D model can be applied, with only minor changes, to predict performance in higher dimensional spaces as well. We apply the model to the double-target deficit paradigm of Duncan (1980) in which participants judge whether briefly-presented four-element displays contain one or two digit targets among letter distractors. A 4D version of the hyperspherical diffusion model correctly predicted distributions of response times and response accuracy as a function of task difficulty in single-target and double-target versions of the task. The estimated drift rate parameters from the model imply that the mental representation of the decision alternatives, which we term the 'decision template' for the task, encodes both configural and local stimulus properties. Along with its application to multielement decision making, the model has the potential to characterize the speed and accuracy of multiattribute decisions in studies of cognitive categorization, visual attention, and other areas.</t>
+  </si>
+  <si>
+    <t>I present a model for decision making for stimuli and responses in continuous space.  The model is applied to three numeracy tasks: in one, a two-digit number is presented and the participant has to move their finger to a matching location on a number line, in the second, an array of dots is presented and the participant is to move their finger to a matching location on an arc, and in the third, an array of dots is presented and the participant has to speak the number.  The model is composed of diffusion processes on lines and planes in which evidence from a stimulus (distributed across space) drives the noisy decision process which accumulates evidence over time to a criterion at which point a response is initiated.  Noise is represented as a continuous Gaussian process. The model produces fits for the full distributions of response times and choice probabilities across the stimulus space and provides distributed stimulus acuity measures.</t>
+  </si>
+  <si>
+    <t>Risky choice involves selection between two or more options each of which is a set of *n* ordered pairs, ($p_i,x_i$) , where $x_i$ is a (positive, negative, or zero) payoff and $p_i$ is its probability of occurrence, with  (\sum_i^n p_i=1 \).  There are a large number of different models of risky choice that fall into two broad classes; fixed utility models that satisfy the condition of *simple scalability* and everything else. A prominent example of the former is Cumulative Prospect Theory (Tversky &amp; Kahneman, 1992); a prominent example of the latter is Decision Field Theory (Busemeyer &amp; Townsend, 1993). While it is known that behaviour can be observed that inconsistent with all models, this has largely been based on the construction of special cases. We decided to test the class of fixed utility models against a set of relatively unselected risky choices using signed difference analysis (SDA). The advantage of this approach is that there is no requirement to posit a particular form for the error function that links the difference in the utility of two gambles, *A* and *B*, with the probability of choosing *A* over *B*, $ P(A \succ B) $ . We presented groups of participants with 30 *variable* gambles (*A*) each paired with one of four *fixed* gambles (*B*) and tested the prediction of fixed utility models that $P(A \succ B)$ has the same order over *A* for all *B* using the statistical test developed by Kalish, Dunn, Burdakov and Sysoev (2016). We discuss the implications of the results and explore a relatively simple extension to a (minimally) more complex model.\\ \\*References* \\Busemeyer, J. R., &amp; Townsend, J. T. (1993) Decision Field Theory: A dynamic cognition approach to decision making. *Psychological Review, 100*, 432–459.\\ \\Kalish, M. L., Dunn, J. C., Burdakov, O. P., &amp; Sysoev, O. (2016). A statistical test for equality of latent orders. *Journal of Mathematical Psychology, 70*, 1-11\\ \\Tversky, A. &amp; Kahneman, D. (1992). Advances in prospect theory: Cumulative representation of uncertainty. *Journal of Risk and Uncertainty, 5(4)*, 297–323.</t>
   </si>
 </sst>
 </file>
@@ -2803,14 +2771,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -3455,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3483,59 +3451,59 @@
         <v>0</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="182" x14ac:dyDescent="0.3">
       <c r="A3" s="137" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="139"/>
-    </row>
-    <row r="4" spans="1:6" ht="312" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="138"/>
+    </row>
+    <row r="4" spans="1:6" ht="286" x14ac:dyDescent="0.3">
       <c r="A4" s="137" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>422</v>
+        <v>320</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>404</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -3543,285 +3511,285 @@
         <v>10</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.3">
       <c r="A6" s="137" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="137" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="390" x14ac:dyDescent="0.3">
       <c r="A8" s="137" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="390" x14ac:dyDescent="0.3">
       <c r="A9" s="137" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="260" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="234" x14ac:dyDescent="0.3">
       <c r="A10" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="312" x14ac:dyDescent="0.3">
       <c r="A11" s="137" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="364" x14ac:dyDescent="0.3">
       <c r="A12" s="137" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E12" s="137" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="137" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="390" x14ac:dyDescent="0.3">
       <c r="A14" s="137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="137" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E15" s="137" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A17" s="137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E17" s="137" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E18" s="137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E19" s="137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="364" x14ac:dyDescent="0.3">
       <c r="A20" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="137" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="137" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E21" s="137" t="s">
         <v>415</v>
@@ -3829,427 +3797,427 @@
     </row>
     <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="137" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>344</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="137" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="137" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B23" s="137" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E23" s="137" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D24" s="137" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E24" s="137" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A25" s="137" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>346</v>
+        <v>276</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>407</v>
       </c>
       <c r="D25" s="137" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E25" s="137" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C26" s="137" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E26" s="137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="130" x14ac:dyDescent="0.3">
       <c r="A27" s="137" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="140" t="s">
-        <v>424</v>
+        <v>378</v>
+      </c>
+      <c r="E27" s="139" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A28" s="137" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E28" s="137" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="137" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E29" s="137" t="s">
-        <v>116</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A30" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="137" t="s">
-        <v>54</v>
-      </c>
       <c r="C30" s="137" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D30" s="137" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E30" s="137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A31" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="137" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="137" t="s">
         <v>15</v>
-      </c>
-      <c r="B31" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="137" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" s="137" t="s">
-        <v>394</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="286" x14ac:dyDescent="0.3">
       <c r="A32" s="137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="137" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E32" s="137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="364" x14ac:dyDescent="0.3">
       <c r="A33" s="137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D33" s="137" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E33" s="137" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="260" x14ac:dyDescent="0.3">
       <c r="A34" s="137" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E34" s="137" t="s">
-        <v>152</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A35" s="137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E35" s="137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="286" x14ac:dyDescent="0.3">
       <c r="A36" s="137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C36" s="137" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E36" s="137" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="390" x14ac:dyDescent="0.3">
       <c r="A37" s="137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="137" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="E37" s="137" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="137" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C38" s="137" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E38" s="137" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39" s="137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="137" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E39" s="137" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A40" s="137" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="E40" s="137" t="s">
-        <v>110</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="137" t="s">
+        <v>391</v>
+      </c>
+      <c r="E41" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="137" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="E41" s="137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" ht="208" x14ac:dyDescent="0.3">
       <c r="A42" s="137" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B42" s="137" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C42" s="137" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D42" s="137" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="E42" s="137" t="s">
-        <v>145</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" s="137" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C43" s="137" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D43" s="137" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E43" s="137" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="338" x14ac:dyDescent="0.3">
       <c r="A44" s="137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="137" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C44" s="137" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D44" s="137" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E44" s="137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="137" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C45" s="137" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="286" x14ac:dyDescent="0.3">
       <c r="A46" s="137" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="137" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C46" s="137" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D46" s="137" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E46" s="137" t="s">
-        <v>14</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4288,10 +4256,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4306,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4335,11 +4303,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,28 +4315,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4376,25 +4344,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4402,25 +4370,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -4428,25 +4396,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
@@ -4455,10 +4423,10 @@
       </c>
       <c r="D8" s="102"/>
       <c r="G8" s="101" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -4470,28 +4438,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4499,25 +4467,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4525,25 +4493,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4551,25 +4519,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4577,25 +4545,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F14" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4603,10 +4571,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4615,22 +4583,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>5</v>
@@ -4644,25 +4612,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="54" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -4670,25 +4638,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="68" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4696,25 +4664,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="68" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="104" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4724,10 +4692,10 @@
       <c r="D21" s="105"/>
       <c r="E21" s="106"/>
       <c r="G21" s="104" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I21" s="107" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4740,28 +4708,28 @@
         <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4769,25 +4737,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4795,25 +4763,25 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4821,25 +4789,25 @@
         <v>4</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="78" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="79" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4847,25 +4815,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4874,10 +4842,10 @@
       </c>
       <c r="D28" s="82"/>
       <c r="G28" s="63" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I28" s="83" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
@@ -4889,28 +4857,28 @@
         <v>5</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4918,25 +4886,25 @@
         <v>5</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="F31" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4944,25 +4912,25 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4971,25 +4939,25 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4998,25 +4966,25 @@
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5024,28 +4992,28 @@
         <v>5</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="89" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="108" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5055,10 +5023,10 @@
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
       <c r="G36" s="108" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I36" s="111" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5071,28 +5039,28 @@
         <v>6</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5100,25 +5068,25 @@
         <v>6</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="F39" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5126,25 +5094,25 @@
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,25 +5120,25 @@
         <v>6</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>50</v>
-      </c>
-      <c r="F41" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5179,10 +5147,10 @@
       </c>
       <c r="D42" s="93"/>
       <c r="G42" s="63" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5194,28 +5162,28 @@
         <v>7</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C44" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="45" t="s">
         <v>73</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5223,25 +5191,25 @@
         <v>7</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5249,25 +5217,25 @@
         <v>7</v>
       </c>
       <c r="C46" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5275,25 +5243,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5304,22 +5272,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5327,25 +5295,25 @@
         <v>7</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D49" s="99" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E49" s="89" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I49" s="100" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.2">
@@ -5354,10 +5322,10 @@
       </c>
       <c r="D50" s="112"/>
       <c r="G50" s="108" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I50" s="113" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -5369,28 +5337,28 @@
         <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="30" t="s">
+      <c r="F52" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="45" t="s">
         <v>59</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5401,19 +5369,19 @@
         <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>12</v>
@@ -5424,25 +5392,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="E54" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="F54" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5451,25 +5419,25 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5478,25 +5446,25 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="39" t="s">
+      <c r="G56" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5504,25 +5472,25 @@
         <v>8</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.2">
@@ -5530,22 +5498,22 @@
         <v>8</v>
       </c>
       <c r="C58" s="114" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D58" s="115" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E58" s="114" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F58" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58" s="114" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5553,25 +5521,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F59" s="117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G59" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5579,10 +5547,10 @@
         <v>8</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5590,7 +5558,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5630,10 +5598,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="121" t="s">
         <v>7</v>
@@ -5648,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="121" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H1" s="121" t="s">
         <v>2</v>
@@ -5657,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="121" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5665,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="123" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5676,28 +5644,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C4" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,25 +5673,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,25 +5699,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E6" s="121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5757,25 +5725,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5783,25 +5751,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="124" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="121" t="s">
+      <c r="F8" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="125" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="125" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,10 +5778,10 @@
       </c>
       <c r="D9" s="124"/>
       <c r="G9" s="121" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5825,25 +5793,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="123" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="126" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5851,25 +5819,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5877,25 +5845,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="121" t="s">
+      <c r="G13" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="123" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="123" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5903,25 +5871,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="121" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I14" s="121" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,25 +5897,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I15" s="123" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5955,25 +5923,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="123" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5984,19 +5952,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I17" s="125" t="s">
         <v>12</v>
@@ -6011,10 +5979,10 @@
       <c r="E18" s="132"/>
       <c r="F18" s="126"/>
       <c r="G18" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="132" t="s">
         <v>169</v>
-      </c>
-      <c r="I18" s="132" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -6030,28 +5998,28 @@
         <v>3</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="38" x14ac:dyDescent="0.25">
@@ -6059,25 +6027,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="121" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E21" s="121" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="123" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6085,25 +6053,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="121" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E22" s="121" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6111,25 +6079,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I23" s="127" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6137,25 +6105,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="125" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6163,10 +6131,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I25" s="127" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6178,28 +6146,28 @@
         <v>4</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D27" s="134" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E27" s="133" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F27" s="133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="134" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6207,25 +6175,25 @@
         <v>4</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="122" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6233,25 +6201,25 @@
         <v>4</v>
       </c>
       <c r="C29" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="121" t="s">
-        <v>62</v>
-      </c>
       <c r="F29" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6259,28 +6227,28 @@
         <v>4</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D30" s="126" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E30" s="128" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="127" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6288,25 +6256,25 @@
         <v>4</v>
       </c>
       <c r="C31" s="121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6314,25 +6282,25 @@
         <v>4</v>
       </c>
       <c r="C32" s="121" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D32" s="124" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E32" s="121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I32" s="123" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,10 +6309,10 @@
       </c>
       <c r="D33" s="124"/>
       <c r="G33" s="121" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I33" s="125" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6358,28 +6326,28 @@
         <v>5</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C36" s="121" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D36" s="124" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E36" s="126" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F36" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="123" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6387,25 +6355,25 @@
         <v>5</v>
       </c>
       <c r="C37" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="124" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6413,25 +6381,25 @@
         <v>5</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="121" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6439,25 +6407,25 @@
         <v>5</v>
       </c>
       <c r="C39" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E39" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I39" s="125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,25 +6433,25 @@
         <v>5</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D40" s="132" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E40" s="132" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F40" s="126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I40" s="132" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6491,10 +6459,10 @@
         <v>5</v>
       </c>
       <c r="G41" s="121" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I41" s="129" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6505,28 +6473,28 @@
         <v>6</v>
       </c>
       <c r="B43" s="121" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C43" s="121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6534,25 +6502,25 @@
         <v>6</v>
       </c>
       <c r="C44" s="121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="122" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E44" s="121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="123" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6560,25 +6528,25 @@
         <v>6</v>
       </c>
       <c r="C45" s="121" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D45" s="121" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E45" s="121" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F45" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="121" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -6586,25 +6554,25 @@
         <v>6</v>
       </c>
       <c r="C46" s="121" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D46" s="121" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E46" s="121" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F46" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="121" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="125" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6612,25 +6580,25 @@
         <v>6</v>
       </c>
       <c r="C47" s="121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="122" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E47" s="121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H47" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -6638,25 +6606,25 @@
         <v>6</v>
       </c>
       <c r="C48" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="121" t="s">
+      <c r="F48" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="125" t="s">
         <v>66</v>
-      </c>
-      <c r="F48" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" s="125" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -6665,10 +6633,10 @@
       </c>
       <c r="D49" s="121"/>
       <c r="G49" s="121" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I49" s="121" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -6680,22 +6648,22 @@
         <v>7</v>
       </c>
       <c r="B51" s="121" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C51" s="121" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="122" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E51" s="121" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H51" s="121" t="s">
         <v>5</v>
@@ -6709,25 +6677,25 @@
         <v>7</v>
       </c>
       <c r="C52" s="121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="122" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E52" s="121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="127" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6735,25 +6703,25 @@
         <v>7</v>
       </c>
       <c r="C53" s="121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E53" s="121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I53" s="125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6761,25 +6729,25 @@
         <v>7</v>
       </c>
       <c r="C54" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E54" s="130" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F54" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H54" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="125" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6787,25 +6755,25 @@
         <v>7</v>
       </c>
       <c r="C55" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" s="121" t="s">
+      <c r="F55" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="123" t="s">
         <v>59</v>
-      </c>
-      <c r="F55" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="I55" s="123" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6814,10 +6782,10 @@
       </c>
       <c r="E56" s="130"/>
       <c r="G56" s="121" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I56" s="125" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6829,25 +6797,25 @@
         <v>8</v>
       </c>
       <c r="C58" s="121" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E58" s="121" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F58" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="123" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -6855,25 +6823,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="125" t="s">
         <v>19</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>211</v>
-      </c>
-      <c r="E59" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" s="125" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6881,19 +6849,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="121" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D60" s="131" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G60" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I60" s="131" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6901,25 +6869,25 @@
         <v>8</v>
       </c>
       <c r="C61" s="121" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D61" s="124" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E61" s="121" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F61" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I61" s="125" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6927,25 +6895,25 @@
         <v>8</v>
       </c>
       <c r="C62" s="121" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D62" s="122" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F62" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" s="121" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I62" s="125" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -6956,22 +6924,22 @@
         <v>13</v>
       </c>
       <c r="D63" s="122" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E63" s="121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I63" s="123" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6980,10 +6948,10 @@
       </c>
       <c r="E64" s="130"/>
       <c r="G64" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I64" s="123" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6993,7 +6961,7 @@
       <c r="D65" s="126"/>
       <c r="E65" s="128"/>
       <c r="I65" s="123" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="22" x14ac:dyDescent="0.25">

--- a/programme/Maths Psych_V2.xlsx
+++ b/programme/Maths Psych_V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonfarrell/Simon/Admin/Conferences/AMPC18/website/programme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amason/Documents/AMPC18/programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="420">
   <si>
     <t>Title</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Assessing Robustness of Statistical Models: Info-Gap Theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info-gap theory provides a versatile supplement to robust statistical techniques, by evaluating the robustness of any statistical model of a data-set to uncertainties in any aspects of the model’s functional form, its parameters, and the data.  The info-gap robustness function quantifies the tradeoff between model accuracy and robustness.  It enables researchers to address questions such as which of several models should be preferred for making predictions in future scenarios involving populations that may differ in unknown ways from the data on which the models were originally tested. We illustrate this framework with examples using CDF-Quantile distribution models fitted to real data. </t>
   </si>
   <si>
     <t>Hawkins</t>
@@ -1137,9 +1134,6 @@
     <t>Rachel G. Stephens [1], Dora Matzke [2], &amp; Brett K. Hayes [1]</t>
   </si>
   <si>
-    <t>Yakov Ben-Haim [1] &amp; Michael Smithson [2]</t>
-  </si>
-  <si>
     <t>Philip L. Smith [1], &amp; Elaine A. Corbett [1,2]</t>
   </si>
   <si>
@@ -1575,9 +1569,6 @@
   </si>
   <si>
     <t>*[1] University of Melbourne, [2] Trinity College, Dublin*</t>
-  </si>
-  <si>
-    <t>*[1] Technion (Israel Institute of Technology), [2] The Australian National University*</t>
   </si>
   <si>
     <t>*[1] University of New South Wales, [2] Univeristy of Amerstdam*</t>
@@ -1802,9 +1793,6 @@
     <t>**HOW DO PEOPLE THINK ABOUT THE PROBABILITY OF HUMAN EXTINCTION?**</t>
   </si>
   <si>
-    <t>**ASSESSING ROBUSTNESS OF STATISTICAL MODELS: INFO-GAP THEORY**</t>
-  </si>
-  <si>
     <t>**DISAPPEARING DISSOCIATIONS IN EXPERIMENTAL PSYCHOLOGY: USING STATE-TRACE ANALYSIS TO TEST FOR MULTIPLE PROCESSES**</t>
   </si>
   <si>
@@ -1842,9 +1830,6 @@
   </si>
   <si>
     <t>Le Pelley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben-Haim </t>
   </si>
   <si>
     <t>Anthea G. Blunden, Dylan Hammond, Piers D. L. Howe &amp; Daniel R. Little</t>
@@ -3421,10 +3406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3437,7 +3422,7 @@
     <col min="6" max="16384" width="47.1640625" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
         <v>7</v>
       </c>
@@ -3451,778 +3436,760 @@
         <v>0</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="137" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="137" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A5" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D5" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E6" s="137" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A8" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="137" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="182" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="137" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>388</v>
-      </c>
-      <c r="E3" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="138"/>
-    </row>
-    <row r="4" spans="1:6" ht="286" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="137" t="s">
+    <row r="9" spans="1:5" ht="234" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="312" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="137" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="138" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" s="137" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="137" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="137" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="137" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="137" t="s">
+      <c r="D10" s="137" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" s="137" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A13" s="137" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="390" x14ac:dyDescent="0.3">
-      <c r="A8" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="137" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="390" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="137" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" s="137" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="234" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="312" x14ac:dyDescent="0.3">
-      <c r="A11" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="137" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="364" x14ac:dyDescent="0.3">
-      <c r="A12" s="137" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" s="137" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
-        <v>77</v>
-      </c>
       <c r="B13" s="137" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" s="137" t="s">
         <v>324</v>
       </c>
       <c r="D13" s="137" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="137" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="137" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="390" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="137" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="137" t="s">
+      <c r="E14" s="137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+      <c r="A16" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D16" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="E14" s="137" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="137" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="137" t="s">
+      <c r="E16" s="137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D17" s="137" t="s">
         <v>368</v>
       </c>
-      <c r="E15" s="137" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>369</v>
-      </c>
-      <c r="E16" s="137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="260" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="137" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>370</v>
-      </c>
       <c r="E17" s="137" t="s">
-        <v>355</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C18" s="137" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>369</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+      <c r="A19" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="137" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D19" s="137" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="137" t="s">
         <v>371</v>
       </c>
-      <c r="E18" s="137" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="137" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="137" t="s">
-        <v>372</v>
-      </c>
-      <c r="E19" s="137" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="364" x14ac:dyDescent="0.3">
-      <c r="A20" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>373</v>
-      </c>
       <c r="E20" s="137" t="s">
-        <v>81</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E21" s="137" t="s">
-        <v>415</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C22" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+      <c r="A23" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A24" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" s="137" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="137" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D25" s="137" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="137" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="130" x14ac:dyDescent="0.3">
+      <c r="A26" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="137" t="s">
         <v>375</v>
       </c>
-      <c r="E22" s="137" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" s="137" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" s="137" t="s">
+      <c r="E26" s="139" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="234" x14ac:dyDescent="0.3">
+      <c r="A27" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="137" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="260" x14ac:dyDescent="0.3">
-      <c r="A24" s="137" t="s">
-        <v>401</v>
-      </c>
-      <c r="B24" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="137" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="137" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" s="137" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="338" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="137" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="140" t="s">
-        <v>407</v>
-      </c>
-      <c r="D25" s="137" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="137" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="137" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="137" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="137" t="s">
-        <v>397</v>
-      </c>
-      <c r="E26" s="137" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="130" x14ac:dyDescent="0.3">
-      <c r="A27" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="137" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="137" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="139" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="234" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
-        <v>399</v>
-      </c>
-      <c r="B28" s="137" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="137" t="s">
-        <v>325</v>
-      </c>
-      <c r="D28" s="137" t="s">
-        <v>366</v>
-      </c>
       <c r="E28" s="137" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A29" s="137" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>272</v>
+        <v>52</v>
       </c>
       <c r="C29" s="137" t="s">
         <v>337</v>
       </c>
       <c r="D29" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="137" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="137" t="s">
         <v>379</v>
       </c>
-      <c r="E29" s="137" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="234" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="137" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="137" t="s">
+      <c r="E30" s="137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A31" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="137" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D31" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+      <c r="A32" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" s="137" t="s">
         <v>381</v>
       </c>
-      <c r="E30" s="137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="338" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="137" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="137" t="s">
+      <c r="E32" s="137" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="260" x14ac:dyDescent="0.3">
+      <c r="A33" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="137" t="s">
         <v>340</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D33" s="137" t="s">
         <v>382</v>
       </c>
-      <c r="E31" s="137" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="286" x14ac:dyDescent="0.3">
-      <c r="A32" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="137" t="s">
+      <c r="E33" s="137" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A34" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="D34" s="137" t="s">
         <v>383</v>
       </c>
-      <c r="E32" s="137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="364" x14ac:dyDescent="0.3">
-      <c r="A33" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="137" t="s">
-        <v>398</v>
-      </c>
-      <c r="C33" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="137" t="s">
+      <c r="E34" s="137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A35" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="137" t="s">
         <v>384</v>
       </c>
-      <c r="E33" s="137" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="260" x14ac:dyDescent="0.3">
-      <c r="A34" s="137" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="137" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" s="137" t="s">
+      <c r="E35" s="137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+      <c r="A36" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="137" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>414</v>
+      </c>
+      <c r="E36" s="137" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="137" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="E34" s="137" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="338" x14ac:dyDescent="0.3">
-      <c r="A35" s="137" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="137" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="137" t="s">
-        <v>386</v>
-      </c>
-      <c r="E35" s="137" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="286" x14ac:dyDescent="0.3">
-      <c r="A36" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="137" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" s="137" t="s">
-        <v>387</v>
-      </c>
-      <c r="E36" s="137" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="390" x14ac:dyDescent="0.3">
-      <c r="A37" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="137" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="137" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="137" t="s">
-        <v>419</v>
-      </c>
       <c r="E37" s="137" t="s">
-        <v>422</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="137" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C38" s="137" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A39" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="137" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="E39" s="137" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="137" t="s">
         <v>347</v>
       </c>
-      <c r="D38" s="137" t="s">
+      <c r="D40" s="137" t="s">
+        <v>387</v>
+      </c>
+      <c r="E40" s="137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="208" x14ac:dyDescent="0.3">
+      <c r="A41" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="137" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="137" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41" s="137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="137" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="137" t="s">
         <v>389</v>
       </c>
-      <c r="E38" s="137" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="137" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>348</v>
-      </c>
-      <c r="D39" s="137" t="s">
+      <c r="E42" s="137" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="338" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="E39" s="137" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="338" x14ac:dyDescent="0.3">
-      <c r="A40" s="137" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="137" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" s="137" t="s">
+      <c r="E43" s="137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="137" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="137" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="137" t="s">
-        <v>420</v>
-      </c>
-      <c r="E40" s="137" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="137" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="D41" s="137" t="s">
+      <c r="D44" s="137" t="s">
         <v>391</v>
       </c>
-      <c r="E41" s="137" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="208" x14ac:dyDescent="0.3">
-      <c r="A42" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" s="137" t="s">
-        <v>351</v>
-      </c>
-      <c r="D42" s="137" t="s">
+      <c r="E44" s="137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="286" x14ac:dyDescent="0.3">
+      <c r="A45" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" s="137" t="s">
         <v>392</v>
       </c>
-      <c r="E42" s="137" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="B43" s="137" t="s">
-        <v>296</v>
-      </c>
-      <c r="C43" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="137" t="s">
-        <v>393</v>
-      </c>
-      <c r="E43" s="137" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="338" x14ac:dyDescent="0.3">
-      <c r="A44" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C44" s="137" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" s="137" t="s">
-        <v>394</v>
-      </c>
-      <c r="E44" s="137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="137" t="s">
-        <v>352</v>
-      </c>
-      <c r="D45" s="137" t="s">
-        <v>395</v>
-      </c>
       <c r="E45" s="137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="286" x14ac:dyDescent="0.3">
-      <c r="A46" s="137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="137" t="s">
-        <v>396</v>
-      </c>
-      <c r="E46" s="137" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E46">
-    <sortCondition ref="A43"/>
+  <sortState ref="A2:E45">
+    <sortCondition ref="A42"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4256,10 +4223,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4274,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4303,11 +4270,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="49" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4315,28 +4282,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4347,16 +4314,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>5</v>
@@ -4370,25 +4337,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -4396,25 +4363,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
@@ -4423,10 +4390,10 @@
       </c>
       <c r="D8" s="102"/>
       <c r="G8" s="101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -4438,22 +4405,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>5</v>
@@ -4467,25 +4434,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,25 +4460,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4519,25 +4486,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4545,25 +4512,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>168</v>
-      </c>
       <c r="F14" s="119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4571,10 +4538,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4583,22 +4550,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>5</v>
@@ -4615,22 +4582,22 @@
         <v>20</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="54" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -4638,25 +4605,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="68" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4664,25 +4631,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="68" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="104" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4692,10 +4659,10 @@
       <c r="D21" s="105"/>
       <c r="E21" s="106"/>
       <c r="G21" s="104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4708,28 +4675,28 @@
         <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4737,25 +4704,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="F24" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4763,25 +4730,25 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4789,25 +4756,25 @@
         <v>4</v>
       </c>
       <c r="C26" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="78" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4815,25 +4782,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4842,10 +4809,10 @@
       </c>
       <c r="D28" s="82"/>
       <c r="G28" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
@@ -4857,28 +4824,28 @@
         <v>5</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>99</v>
-      </c>
       <c r="F30" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4886,25 +4853,25 @@
         <v>5</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F31" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4912,25 +4879,25 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4939,25 +4906,25 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4969,22 +4936,22 @@
         <v>21</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -4992,28 +4959,28 @@
         <v>5</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="89" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="108" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5023,10 +4990,10 @@
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
       <c r="G36" s="108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I36" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5039,28 +5006,28 @@
         <v>6</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5068,25 +5035,25 @@
         <v>6</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5094,25 +5061,25 @@
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5120,25 +5087,25 @@
         <v>6</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="F41" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="63" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5147,10 +5114,10 @@
       </c>
       <c r="D42" s="93"/>
       <c r="G42" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="64" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5162,28 +5129,28 @@
         <v>7</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="45" t="s">
         <v>72</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5191,25 +5158,25 @@
         <v>7</v>
       </c>
       <c r="C45" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="F45" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5220,19 +5187,19 @@
         <v>18</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>19</v>
@@ -5243,25 +5210,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5272,22 +5239,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -5295,25 +5262,25 @@
         <v>7</v>
       </c>
       <c r="C49" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="89" t="s">
+      <c r="F49" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="100" t="s">
         <v>121</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="I49" s="100" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.2">
@@ -5322,10 +5289,10 @@
       </c>
       <c r="D50" s="112"/>
       <c r="G50" s="108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I50" s="113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -5337,28 +5304,28 @@
         <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" s="30" t="s">
+      <c r="F52" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="45" t="s">
         <v>58</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -5369,19 +5336,19 @@
         <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>12</v>
@@ -5392,25 +5359,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="E54" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="F54" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5419,25 +5386,25 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="39" t="s">
+      <c r="F55" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" s="43" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5446,25 +5413,25 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="39" t="s">
+      <c r="G56" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -5472,25 +5439,25 @@
         <v>8</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.2">
@@ -5498,22 +5465,22 @@
         <v>8</v>
       </c>
       <c r="C58" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="114" t="s">
         <v>163</v>
-      </c>
-      <c r="D58" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="I58" s="114" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5521,25 +5488,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>156</v>
-      </c>
       <c r="F59" s="117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G59" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5547,10 +5514,10 @@
         <v>8</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5558,7 +5525,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5578,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A6" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5598,10 +5565,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="121" t="s">
         <v>7</v>
@@ -5616,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="121" t="s">
         <v>2</v>
@@ -5625,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5633,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5644,28 +5611,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,25 +5640,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,25 +5666,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="121" t="s">
+      <c r="F6" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="125" t="s">
         <v>103</v>
-      </c>
-      <c r="F6" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,25 +5692,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,25 +5718,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="121" t="s">
+      <c r="F8" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="125" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="125" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5778,10 +5745,10 @@
       </c>
       <c r="D9" s="124"/>
       <c r="G9" s="121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5793,25 +5760,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="123" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="126" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,25 +5786,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5845,25 +5812,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="121" t="s">
+      <c r="G13" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="123" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="123" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5871,25 +5838,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="121" t="s">
         <v>163</v>
-      </c>
-      <c r="D14" s="122" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="121" t="s">
-        <v>309</v>
-      </c>
-      <c r="I14" s="121" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5897,25 +5864,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="122" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>125</v>
-      </c>
       <c r="F15" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5923,25 +5890,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="123" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5952,19 +5919,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="125" t="s">
         <v>12</v>
@@ -5979,10 +5946,10 @@
       <c r="E18" s="132"/>
       <c r="F18" s="126"/>
       <c r="G18" s="126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,28 +5965,28 @@
         <v>3</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="38" x14ac:dyDescent="0.25">
@@ -6027,25 +5994,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>112</v>
-      </c>
       <c r="F21" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,25 +6020,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="121" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="121" t="s">
-        <v>129</v>
-      </c>
       <c r="F22" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,25 +6046,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I23" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6105,25 +6072,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6131,10 +6098,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I25" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6146,28 +6113,28 @@
         <v>4</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D27" s="134" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E27" s="133" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F27" s="133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="134" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6175,25 +6142,25 @@
         <v>4</v>
       </c>
       <c r="C28" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="121" t="s">
-        <v>99</v>
-      </c>
       <c r="F28" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6201,25 +6168,25 @@
         <v>4</v>
       </c>
       <c r="C29" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="121" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.25">
@@ -6227,28 +6194,28 @@
         <v>4</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="126" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="128" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6259,22 +6226,22 @@
         <v>21</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,25 +6249,25 @@
         <v>4</v>
       </c>
       <c r="C32" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="123" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="123" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6309,10 +6276,10 @@
       </c>
       <c r="D33" s="124"/>
       <c r="G33" s="121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I33" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6326,28 +6293,28 @@
         <v>5</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E36" s="126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6355,25 +6322,25 @@
         <v>5</v>
       </c>
       <c r="C37" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="124" t="s">
-        <v>176</v>
+        <v>138</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>226</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F37" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="125" t="s">
-        <v>24</v>
+      <c r="I37" s="121" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6381,120 +6348,120 @@
         <v>5</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="121" t="s">
-        <v>227</v>
+        <v>51</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>306</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G38" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H38" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I38" s="125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="121">
         <v>5</v>
       </c>
-      <c r="C39" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="E39" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>84</v>
+      <c r="C39" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="132" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="H39" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="I39" s="125" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="121">
         <v>5</v>
       </c>
-      <c r="C40" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="132" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" s="132" t="s">
-        <v>154</v>
+      <c r="G40" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" s="129" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
+      <c r="I41" s="129"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="121">
+        <v>6</v>
+      </c>
+      <c r="B42" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="121" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" s="129" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="129"/>
+      <c r="I42" s="123" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="121">
         <v>6</v>
       </c>
-      <c r="B43" s="121" t="s">
-        <v>149</v>
-      </c>
       <c r="C43" s="121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="124" t="s">
-        <v>180</v>
+        <v>86</v>
+      </c>
+      <c r="D43" s="122" t="s">
+        <v>227</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F43" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="123" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6502,25 +6469,25 @@
         <v>6</v>
       </c>
       <c r="C44" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="122" t="s">
-        <v>228</v>
+        <v>133</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>181</v>
       </c>
       <c r="E44" s="121" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F44" s="121" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G44" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H44" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="123" t="s">
-        <v>175</v>
+      <c r="I44" s="121" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6528,148 +6495,148 @@
         <v>6</v>
       </c>
       <c r="C45" s="121" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D45" s="121" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E45" s="121" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F45" s="121" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G45" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I45" s="125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="121">
         <v>6</v>
       </c>
       <c r="C46" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="121" t="s">
-        <v>230</v>
+        <v>29</v>
+      </c>
+      <c r="D46" s="122" t="s">
+        <v>228</v>
       </c>
       <c r="E46" s="121" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="F46" s="121" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G46" s="121" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H46" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="125" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I46" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="121">
         <v>6</v>
       </c>
       <c r="C47" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>229</v>
+        <v>63</v>
+      </c>
+      <c r="D47" s="126" t="s">
+        <v>193</v>
       </c>
       <c r="E47" s="121" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F47" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G47" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H47" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="123" t="s">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="I47" s="125" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="121">
         <v>6</v>
       </c>
-      <c r="C48" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="121" t="s">
-        <v>74</v>
-      </c>
+      <c r="D48" s="121"/>
       <c r="G48" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="125" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="I48" s="121" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="121">
+      <c r="D49" s="121"/>
+      <c r="I49" s="121"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="121">
+        <v>7</v>
+      </c>
+      <c r="B50" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="G49" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="121"/>
-      <c r="I50" s="121"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="121">
         <v>7</v>
       </c>
-      <c r="B51" s="121" t="s">
-        <v>152</v>
-      </c>
       <c r="C51" s="121" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" s="122" t="s">
         <v>184</v>
       </c>
       <c r="E51" s="121" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F51" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="123" t="s">
-        <v>6</v>
+      <c r="I51" s="127" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6677,301 +6644,275 @@
         <v>7</v>
       </c>
       <c r="C52" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="122" t="s">
-        <v>185</v>
+        <v>25</v>
+      </c>
+      <c r="D52" s="126" t="s">
+        <v>255</v>
       </c>
       <c r="E52" s="121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A53" s="121">
         <v>7</v>
       </c>
       <c r="C53" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="126" t="s">
-        <v>256</v>
-      </c>
-      <c r="E53" s="121" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="D53" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="130" t="s">
+        <v>298</v>
       </c>
       <c r="F53" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G53" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H53" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I53" s="125" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="121">
         <v>7</v>
       </c>
       <c r="C54" s="121" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="130" t="s">
-        <v>300</v>
+        <v>240</v>
+      </c>
+      <c r="E54" s="121" t="s">
+        <v>57</v>
       </c>
       <c r="F54" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H54" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="125" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I54" s="123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A55" s="121">
         <v>7</v>
       </c>
-      <c r="C55" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="122" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="121" t="s">
-        <v>74</v>
-      </c>
+      <c r="E55" s="130"/>
       <c r="G55" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="123" t="s">
-        <v>59</v>
+        <v>159</v>
+      </c>
+      <c r="I55" s="125" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A56" s="121">
-        <v>7</v>
-      </c>
       <c r="E56" s="130"/>
-      <c r="G56" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" s="125" t="s">
-        <v>215</v>
-      </c>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="E57" s="130"/>
-      <c r="I57" s="125"/>
-    </row>
-    <row r="58" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A57" s="121">
+        <v>8</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="121">
         <v>8</v>
       </c>
       <c r="C58" s="121" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="E58" s="121" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="F58" s="121" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G58" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H58" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="123" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I58" s="125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="121">
         <v>8</v>
       </c>
       <c r="C59" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>202</v>
+        <v>222</v>
+      </c>
+      <c r="D59" s="131" t="s">
+        <v>247</v>
       </c>
       <c r="E59" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="121" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="G59" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I59" s="131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="121">
         <v>8</v>
       </c>
       <c r="C60" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="131" t="s">
-        <v>248</v>
+        <v>92</v>
+      </c>
+      <c r="D60" s="124" t="s">
+        <v>238</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>226</v>
+        <v>90</v>
+      </c>
+      <c r="F60" s="121" t="s">
+        <v>83</v>
       </c>
       <c r="G60" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="I60" s="131" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H60" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" s="125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A61" s="121">
         <v>8</v>
       </c>
       <c r="C61" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="124" t="s">
-        <v>239</v>
+        <v>119</v>
+      </c>
+      <c r="D61" s="122" t="s">
+        <v>300</v>
       </c>
       <c r="E61" s="121" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F61" s="121" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G61" s="121" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H61" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I61" s="125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="121">
         <v>8</v>
       </c>
       <c r="C62" s="121" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D62" s="122" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="F62" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H62" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="I62" s="125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I62" s="123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A63" s="121">
         <v>8</v>
       </c>
-      <c r="C63" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="122" t="s">
-        <v>240</v>
-      </c>
-      <c r="E63" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="121" t="s">
-        <v>74</v>
-      </c>
+      <c r="E63" s="130"/>
       <c r="G63" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="121" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="I63" s="123" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="22" x14ac:dyDescent="0.25">
       <c r="A64" s="121">
         <v>8</v>
       </c>
-      <c r="E64" s="130"/>
-      <c r="G64" s="121" t="s">
-        <v>74</v>
-      </c>
+      <c r="D64" s="126"/>
+      <c r="E64" s="128"/>
       <c r="I64" s="123" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A65" s="121">
-        <v>8</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" ht="22" x14ac:dyDescent="0.25">
       <c r="D65" s="126"/>
       <c r="E65" s="128"/>
-      <c r="I65" s="123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="D66" s="126"/>
-      <c r="E66" s="128"/>
-      <c r="I66" s="121"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="121"/>
-      <c r="I68" s="121"/>
+      <c r="I65" s="121"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="121"/>
+      <c r="I67" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
